--- a/ProDS1/output_labelling/dataset_grid_metode_3.xlsx
+++ b/ProDS1/output_labelling/dataset_grid_metode_3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K576"/>
+  <dimension ref="A1:M576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,6 +486,16 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>NDVI</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>EVI</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>jenis_lahan</t>
         </is>
       </c>
@@ -521,7 +531,13 @@
       <c r="J2" t="n">
         <v>2350.285714285714</v>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" t="n">
+        <v>0.1282211138819618</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.712620281273131</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -558,7 +574,13 @@
       <c r="J3" t="n">
         <v>2261</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K3" t="n">
+        <v>0.1120488418028371</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.158173852893705</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -595,7 +617,13 @@
       <c r="J4" t="n">
         <v>2593.6</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K4" t="n">
+        <v>0.1352037219794163</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.9430931620009169</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -632,7 +660,13 @@
       <c r="J5" t="n">
         <v>2748.142857142857</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K5" t="n">
+        <v>0.1470785333631171</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.480755638373064</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -669,7 +703,13 @@
       <c r="J6" t="n">
         <v>1640.8</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K6" t="n">
+        <v>0.09960345229764402</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-4.001874414245554</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -706,7 +746,13 @@
       <c r="J7" t="n">
         <v>2619.142857142857</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K7" t="n">
+        <v>0.2004589632829374</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.612115290669271</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -743,7 +789,13 @@
       <c r="J8" t="n">
         <v>2481.75</v>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="K8" t="n">
+        <v>0.1216461902925459</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.9521345407503234</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -780,7 +832,13 @@
       <c r="J9" t="n">
         <v>2921.6</v>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="K9" t="n">
+        <v>0.09332903121723</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.4761708782615857</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -817,7 +875,13 @@
       <c r="J10" t="n">
         <v>4142.2</v>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K10" t="n">
+        <v>0.08244037955045641</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.4375885709908464</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -854,7 +918,13 @@
       <c r="J11" t="n">
         <v>2937.8</v>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="K11" t="n">
+        <v>0.1329532308709304</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.046299908960854</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -891,7 +961,13 @@
       <c r="J12" t="n">
         <v>2445</v>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="K12" t="n">
+        <v>0.1338516298239041</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.779798231411131</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -928,7 +1004,13 @@
       <c r="J13" t="n">
         <v>2355.666666666667</v>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="K13" t="n">
+        <v>0.1133340138137526</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.077714507570856</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -965,7 +1047,13 @@
       <c r="J14" t="n">
         <v>2830.142857142857</v>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="K14" t="n">
+        <v>0.09303139213129355</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.5781546489563567</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1002,7 +1090,13 @@
       <c r="J15" t="n">
         <v>2987.166666666667</v>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="K15" t="n">
+        <v>0.1167897783988821</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.667821962787301</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1039,7 +1133,13 @@
       <c r="J16" t="n">
         <v>2433.571428571428</v>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="K16" t="n">
+        <v>0.1126404147636095</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-53.20699708454022</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1076,7 +1176,13 @@
       <c r="J17" t="n">
         <v>2887.8</v>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="K17" t="n">
+        <v>0.1146627977722656</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.657309071230463</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1113,7 +1219,13 @@
       <c r="J18" t="n">
         <v>3272.166666666667</v>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="K18" t="n">
+        <v>0.08784853700516355</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.4784940188247649</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1150,7 +1262,13 @@
       <c r="J19" t="n">
         <v>2529</v>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="K19" t="n">
+        <v>0.1165684044380483</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.025567717693186</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1187,7 +1305,13 @@
       <c r="J20" t="n">
         <v>3221.2</v>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="K20" t="n">
+        <v>0.09389132151317212</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.5291476192402613</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1224,7 +1348,13 @@
       <c r="J21" t="n">
         <v>3031.166666666667</v>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="K21" t="n">
+        <v>0.1327494418684527</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.7882285760900601</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1261,7 +1391,13 @@
       <c r="J22" t="n">
         <v>2759.2</v>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="K22" t="n">
+        <v>0.1404144845799203</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.471112361658225</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1298,7 +1434,13 @@
       <c r="J23" t="n">
         <v>2701</v>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="K23" t="n">
+        <v>0.1484564945111619</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.7766728337958682</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1335,7 +1477,13 @@
       <c r="J24" t="n">
         <v>2690.714285714286</v>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="K24" t="n">
+        <v>0.08599848904558045</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.948644793152637</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1372,7 +1520,13 @@
       <c r="J25" t="n">
         <v>2682.75</v>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="K25" t="n">
+        <v>0.1921700223713647</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.553626333875927</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1409,7 +1563,13 @@
       <c r="J26" t="n">
         <v>3389.571428571428</v>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="K26" t="n">
+        <v>0.09742542484136832</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.5355796834153939</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1446,7 +1606,13 @@
       <c r="J27" t="n">
         <v>2877.5</v>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="K27" t="n">
+        <v>0.07027086727227545</v>
+      </c>
+      <c r="L27" t="n">
+        <v>6.679790026246719</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1483,7 +1649,13 @@
       <c r="J28" t="n">
         <v>3518.142857142857</v>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="K28" t="n">
+        <v>0.09493880251405888</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.600188212331392</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1520,7 +1692,13 @@
       <c r="J29" t="n">
         <v>3396.222222222222</v>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="K29" t="n">
+        <v>0.1023141131495012</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.5523667627375315</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1557,7 +1735,13 @@
       <c r="J30" t="n">
         <v>3441</v>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="K30" t="n">
+        <v>0.1242742884982339</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.6899738526733383</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1594,7 +1778,13 @@
       <c r="J31" t="n">
         <v>4469.5</v>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="K31" t="n">
+        <v>0.06485476473585867</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.4052992505466975</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1631,7 +1821,13 @@
       <c r="J32" t="n">
         <v>4144.625</v>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="K32" t="n">
+        <v>0.04045390577881029</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.4949439737633233</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1668,7 +1864,13 @@
       <c r="J33" t="n">
         <v>5044.833333333333</v>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="K33" t="n">
+        <v>-0.001661012983974755</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.01701250778741574</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1705,7 +1907,13 @@
       <c r="J34" t="n">
         <v>3159.916666666667</v>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="K34" t="n">
+        <v>0.1542703429724277</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.7874502265549911</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1742,7 +1950,13 @@
       <c r="J35" t="n">
         <v>3175.3</v>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="K35" t="n">
+        <v>0.1233901808785529</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.5892398815399799</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1779,7 +1993,13 @@
       <c r="J36" t="n">
         <v>3021.555555555556</v>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="K36" t="n">
+        <v>0.08709612232525765</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.6186208216381731</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1816,7 +2036,13 @@
       <c r="J37" t="n">
         <v>3599.636363636364</v>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="K37" t="n">
+        <v>0.09831489018196496</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.5884129156936951</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1853,7 +2079,13 @@
       <c r="J38" t="n">
         <v>3015.833333333333</v>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="K38" t="n">
+        <v>0.1003165670066831</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.9928979250800722</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1890,7 +2122,13 @@
       <c r="J39" t="n">
         <v>3076</v>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="K39" t="n">
+        <v>0.09433740601503765</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.7864838393731656</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1927,7 +2165,13 @@
       <c r="J40" t="n">
         <v>3228.3</v>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="K40" t="n">
+        <v>0.1064862989941034</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.4954245139732689</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1964,7 +2208,13 @@
       <c r="J41" t="n">
         <v>3263.2</v>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="K41" t="n">
+        <v>0.09182707478699904</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.4928235742410767</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2001,7 +2251,13 @@
       <c r="J42" t="n">
         <v>3468.6</v>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="K42" t="n">
+        <v>0.09079654146448617</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.4258846449244147</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2038,7 +2294,13 @@
       <c r="J43" t="n">
         <v>3546</v>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="K43" t="n">
+        <v>0.08953711003491384</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.3945689166193989</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2075,7 +2337,13 @@
       <c r="J44" t="n">
         <v>3398.571428571428</v>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="K44" t="n">
+        <v>0.09080068143100516</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.4365393540637199</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2112,7 +2380,13 @@
       <c r="J45" t="n">
         <v>3368.333333333333</v>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="K45" t="n">
+        <v>0.1136538998243396</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.6471303047298559</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2149,7 +2423,13 @@
       <c r="J46" t="n">
         <v>3119.454545454545</v>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="K46" t="n">
+        <v>0.1126474479622831</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.7498511461744567</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2186,7 +2466,13 @@
       <c r="J47" t="n">
         <v>2839.333333333333</v>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="K47" t="n">
+        <v>0.1382631945207486</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.7840734432766999</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2223,7 +2509,13 @@
       <c r="J48" t="n">
         <v>3545.571428571428</v>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="K48" t="n">
+        <v>0.08529419514637299</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.3622750470051035</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2260,7 +2552,13 @@
       <c r="J49" t="n">
         <v>2975.75</v>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="K49" t="n">
+        <v>0.1321349243246036</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.5684191813697169</v>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2297,7 +2595,13 @@
       <c r="J50" t="n">
         <v>3590.2</v>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="K50" t="n">
+        <v>0.1407518234524033</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.7640609137055842</v>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2334,7 +2638,13 @@
       <c r="J51" t="n">
         <v>3918.666666666667</v>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="K51" t="n">
+        <v>0.09111952203697331</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.447740547187212</v>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2371,7 +2681,13 @@
       <c r="J52" t="n">
         <v>3584</v>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="K52" t="n">
+        <v>0.1170415308657911</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.5398928252456086</v>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2408,7 +2724,13 @@
       <c r="J53" t="n">
         <v>3312</v>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="K53" t="n">
+        <v>0.1427768725066022</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.7797587995212816</v>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2445,7 +2767,13 @@
       <c r="J54" t="n">
         <v>3838.75</v>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="K54" t="n">
+        <v>0.101085147772283</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.4680412371134021</v>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2482,7 +2810,13 @@
       <c r="J55" t="n">
         <v>3703.833333333333</v>
       </c>
-      <c r="K55" t="inlineStr">
+      <c r="K55" t="n">
+        <v>0.107949844058303</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.3895179256333108</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2519,7 +2853,13 @@
       <c r="J56" t="n">
         <v>3769.166666666667</v>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="K56" t="n">
+        <v>0.1050733805668016</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.4630094218654177</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2556,7 +2896,13 @@
       <c r="J57" t="n">
         <v>3260.5</v>
       </c>
-      <c r="K57" t="inlineStr">
+      <c r="K57" t="n">
+        <v>0.1078281654604608</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.6962188116265111</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2593,7 +2939,13 @@
       <c r="J58" t="n">
         <v>4275.166666666667</v>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="K58" t="n">
+        <v>0.1065726605290759</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.5280023094688215</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2630,7 +2982,13 @@
       <c r="J59" t="n">
         <v>3854.833333333333</v>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="K59" t="n">
+        <v>0.1399866852266538</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.5608768398845755</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2667,7 +3025,13 @@
       <c r="J60" t="n">
         <v>4014.2</v>
       </c>
-      <c r="K60" t="inlineStr">
+      <c r="K60" t="n">
+        <v>0.07797249736947139</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.4126027186852015</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2704,7 +3068,13 @@
       <c r="J61" t="n">
         <v>3659.5</v>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="K61" t="n">
+        <v>0.10559696310356</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.5198268003646308</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2741,7 +3111,13 @@
       <c r="J62" t="n">
         <v>3808.6</v>
       </c>
-      <c r="K62" t="inlineStr">
+      <c r="K62" t="n">
+        <v>0.1196713278805925</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.6234781242636093</v>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2778,7 +3154,13 @@
       <c r="J63" t="n">
         <v>4999.4</v>
       </c>
-      <c r="K63" t="inlineStr">
+      <c r="K63" t="n">
+        <v>0.06047620399012406</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.3200757006819073</v>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2815,7 +3197,13 @@
       <c r="J64" t="n">
         <v>3970.5</v>
       </c>
-      <c r="K64" t="inlineStr">
+      <c r="K64" t="n">
+        <v>0.06783975704524139</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.3647058823529412</v>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2852,7 +3240,13 @@
       <c r="J65" t="n">
         <v>3301.125</v>
       </c>
-      <c r="K65" t="inlineStr">
+      <c r="K65" t="n">
+        <v>0.1059519861213868</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.4785664899746485</v>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2889,7 +3283,13 @@
       <c r="J66" t="n">
         <v>3758.5</v>
       </c>
-      <c r="K66" t="inlineStr">
+      <c r="K66" t="n">
+        <v>0.07822512392697371</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.4013647642679899</v>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2926,7 +3326,13 @@
       <c r="J67" t="n">
         <v>3568</v>
       </c>
-      <c r="K67" t="inlineStr">
+      <c r="K67" t="n">
+        <v>0.1042551548382114</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.5648299234341654</v>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2963,7 +3369,13 @@
       <c r="J68" t="n">
         <v>2243.285714285714</v>
       </c>
-      <c r="K68" t="inlineStr">
+      <c r="K68" t="n">
+        <v>0.1564249489560693</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1.206441125673069</v>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3000,7 +3412,13 @@
       <c r="J69" t="n">
         <v>2605.916666666667</v>
       </c>
-      <c r="K69" t="inlineStr">
+      <c r="K69" t="n">
+        <v>0.1255104608178986</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1.149129957118049</v>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3037,7 +3455,13 @@
       <c r="J70" t="n">
         <v>2463.2</v>
       </c>
-      <c r="K70" t="inlineStr">
+      <c r="K70" t="n">
+        <v>0.09155245144243394</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1.464843749999999</v>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3074,7 +3498,13 @@
       <c r="J71" t="n">
         <v>2824.142857142857</v>
       </c>
-      <c r="K71" t="inlineStr">
+      <c r="K71" t="n">
+        <v>0.1445927170506317</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.5508099059622863</v>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3111,7 +3541,13 @@
       <c r="J72" t="n">
         <v>3426.666666666667</v>
       </c>
-      <c r="K72" t="inlineStr">
+      <c r="K72" t="n">
+        <v>0.07744325278890471</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.4715941876934376</v>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3148,7 +3584,13 @@
       <c r="J73" t="n">
         <v>3169.5</v>
       </c>
-      <c r="K73" t="inlineStr">
+      <c r="K73" t="n">
+        <v>0.1150903812329144</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.4064024664012689</v>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3185,7 +3627,13 @@
       <c r="J74" t="n">
         <v>3346.5</v>
       </c>
-      <c r="K74" t="inlineStr">
+      <c r="K74" t="n">
+        <v>0.0853970829158118</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.4028300895844905</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3222,7 +3670,13 @@
       <c r="J75" t="n">
         <v>3354</v>
       </c>
-      <c r="K75" t="inlineStr">
+      <c r="K75" t="n">
+        <v>0.1079868273441175</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.434738268331415</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3259,7 +3713,13 @@
       <c r="J76" t="n">
         <v>2909.25</v>
       </c>
-      <c r="K76" t="inlineStr">
+      <c r="K76" t="n">
+        <v>0.1055953347604636</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.5270332504375056</v>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3296,7 +3756,13 @@
       <c r="J77" t="n">
         <v>2957.571428571428</v>
       </c>
-      <c r="K77" t="inlineStr">
+      <c r="K77" t="n">
+        <v>0.1672817835388724</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.7459591093984159</v>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3333,7 +3799,13 @@
       <c r="J78" t="n">
         <v>3362.25</v>
       </c>
-      <c r="K78" t="inlineStr">
+      <c r="K78" t="n">
+        <v>0.04343804201194836</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.2081794000295552</v>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3370,7 +3842,13 @@
       <c r="J79" t="n">
         <v>2907.363636363636</v>
       </c>
-      <c r="K79" t="inlineStr">
+      <c r="K79" t="n">
+        <v>0.1399141630901287</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.9113782499301091</v>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3407,7 +3885,13 @@
       <c r="J80" t="n">
         <v>2465.166666666667</v>
       </c>
-      <c r="K80" t="inlineStr">
+      <c r="K80" t="n">
+        <v>0.1034537077147245</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1.36994159365874</v>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3444,7 +3928,13 @@
       <c r="J81" t="n">
         <v>3500.5</v>
       </c>
-      <c r="K81" t="inlineStr">
+      <c r="K81" t="n">
+        <v>0.1060067696141994</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.4218320712993366</v>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3481,7 +3971,13 @@
       <c r="J82" t="n">
         <v>3326.692307692308</v>
       </c>
-      <c r="K82" t="inlineStr">
+      <c r="K82" t="n">
+        <v>0.1231762446893757</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.6497017448722445</v>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3518,7 +4014,13 @@
       <c r="J83" t="n">
         <v>3738.6</v>
       </c>
-      <c r="K83" t="inlineStr">
+      <c r="K83" t="n">
+        <v>0.08075559474010018</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.4579007828454735</v>
+      </c>
+      <c r="M83" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3555,7 +4057,13 @@
       <c r="J84" t="n">
         <v>3559.642857142857</v>
       </c>
-      <c r="K84" t="inlineStr">
+      <c r="K84" t="n">
+        <v>0.07642471505698861</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.406261515349075</v>
+      </c>
+      <c r="M84" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3592,7 +4100,13 @@
       <c r="J85" t="n">
         <v>3644.888888888889</v>
       </c>
-      <c r="K85" t="inlineStr">
+      <c r="K85" t="n">
+        <v>0.1047467515247945</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.5699982239587962</v>
+      </c>
+      <c r="M85" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3629,7 +4143,13 @@
       <c r="J86" t="n">
         <v>3401.666666666667</v>
       </c>
-      <c r="K86" t="inlineStr">
+      <c r="K86" t="n">
+        <v>0.09657170449058426</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.5265097667561733</v>
+      </c>
+      <c r="M86" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3666,7 +4186,13 @@
       <c r="J87" t="n">
         <v>2402</v>
       </c>
-      <c r="K87" t="inlineStr">
+      <c r="K87" t="n">
+        <v>0.06456524748363617</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.4939635087294619</v>
+      </c>
+      <c r="M87" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3703,7 +4229,13 @@
       <c r="J88" t="n">
         <v>3377</v>
       </c>
-      <c r="K88" t="inlineStr">
+      <c r="K88" t="n">
+        <v>0.08827400033743883</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.4697094839659567</v>
+      </c>
+      <c r="M88" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3740,7 +4272,13 @@
       <c r="J89" t="n">
         <v>3174.666666666667</v>
       </c>
-      <c r="K89" t="inlineStr">
+      <c r="K89" t="n">
+        <v>0.09907554146856838</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.8107640765157238</v>
+      </c>
+      <c r="M89" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3777,7 +4315,13 @@
       <c r="J90" t="n">
         <v>2859.333333333333</v>
       </c>
-      <c r="K90" t="inlineStr">
+      <c r="K90" t="n">
+        <v>0.1127327902313903</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.6382565298316663</v>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3814,7 +4358,13 @@
       <c r="J91" t="n">
         <v>3022.125</v>
       </c>
-      <c r="K91" t="inlineStr">
+      <c r="K91" t="n">
+        <v>0.1128801064810075</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.5446865273454868</v>
+      </c>
+      <c r="M91" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3851,7 +4401,13 @@
       <c r="J92" t="n">
         <v>3348.7</v>
       </c>
-      <c r="K92" t="inlineStr">
+      <c r="K92" t="n">
+        <v>0.1234831155739929</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.6667783197605035</v>
+      </c>
+      <c r="M92" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3888,7 +4444,13 @@
       <c r="J93" t="n">
         <v>3486</v>
       </c>
-      <c r="K93" t="inlineStr">
+      <c r="K93" t="n">
+        <v>0.09633643953913605</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.4556727242414141</v>
+      </c>
+      <c r="M93" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3925,7 +4487,13 @@
       <c r="J94" t="n">
         <v>2775.166666666667</v>
       </c>
-      <c r="K94" t="inlineStr">
+      <c r="K94" t="n">
+        <v>0.150207468879668</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1.115631163708087</v>
+      </c>
+      <c r="M94" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3962,7 +4530,13 @@
       <c r="J95" t="n">
         <v>3793.5</v>
       </c>
-      <c r="K95" t="inlineStr">
+      <c r="K95" t="n">
+        <v>0.03963386157725955</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.402084649399873</v>
+      </c>
+      <c r="M95" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3999,7 +4573,13 @@
       <c r="J96" t="n">
         <v>3422.5</v>
       </c>
-      <c r="K96" t="inlineStr">
+      <c r="K96" t="n">
+        <v>0.0987674456534402</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.4382844971980396</v>
+      </c>
+      <c r="M96" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -4036,7 +4616,13 @@
       <c r="J97" t="n">
         <v>2649</v>
       </c>
-      <c r="K97" t="inlineStr">
+      <c r="K97" t="n">
+        <v>0.07127654051809168</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1.052671931304148</v>
+      </c>
+      <c r="M97" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -4073,7 +4659,13 @@
       <c r="J98" t="n">
         <v>2928.111111111111</v>
       </c>
-      <c r="K98" t="inlineStr">
+      <c r="K98" t="n">
+        <v>0.1184179733208519</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.7529089664613268</v>
+      </c>
+      <c r="M98" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -4110,7 +4702,13 @@
       <c r="J99" t="n">
         <v>3625.888888888889</v>
       </c>
-      <c r="K99" t="inlineStr">
+      <c r="K99" t="n">
+        <v>0.1287832265988245</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.6530975419864312</v>
+      </c>
+      <c r="M99" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -4147,7 +4745,13 @@
       <c r="J100" t="n">
         <v>2158.666666666667</v>
       </c>
-      <c r="K100" t="inlineStr">
+      <c r="K100" t="n">
+        <v>0.06563584727043233</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.4765021599685826</v>
+      </c>
+      <c r="M100" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -4184,7 +4788,13 @@
       <c r="J101" t="n">
         <v>4509.25</v>
       </c>
-      <c r="K101" t="inlineStr">
+      <c r="K101" t="n">
+        <v>0.08337562051847766</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.3951192990527174</v>
+      </c>
+      <c r="M101" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -4221,7 +4831,13 @@
       <c r="J102" t="n">
         <v>4070.2</v>
       </c>
-      <c r="K102" t="inlineStr">
+      <c r="K102" t="n">
+        <v>0.05684869392037268</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.2330039064777562</v>
+      </c>
+      <c r="M102" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -4258,7 +4874,13 @@
       <c r="J103" t="n">
         <v>2808</v>
       </c>
-      <c r="K103" t="inlineStr">
+      <c r="K103" t="n">
+        <v>0.11801613385121</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0.7512647875537298</v>
+      </c>
+      <c r="M103" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -4295,7 +4917,13 @@
       <c r="J104" t="n">
         <v>2143.7</v>
       </c>
-      <c r="K104" t="inlineStr">
+      <c r="K104" t="n">
+        <v>0.2006530612244898</v>
+      </c>
+      <c r="L104" t="n">
+        <v>3.803271441202489</v>
+      </c>
+      <c r="M104" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -4332,7 +4960,13 @@
       <c r="J105" t="n">
         <v>1630.285714285714</v>
       </c>
-      <c r="K105" t="inlineStr">
+      <c r="K105" t="n">
+        <v>0.3673822492790773</v>
+      </c>
+      <c r="L105" t="n">
+        <v>6.526639344262284</v>
+      </c>
+      <c r="M105" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4369,7 +5003,13 @@
       <c r="J106" t="n">
         <v>1727.8</v>
       </c>
-      <c r="K106" t="inlineStr">
+      <c r="K106" t="n">
+        <v>0.3264630106735369</v>
+      </c>
+      <c r="L106" t="n">
+        <v>8.247326824732667</v>
+      </c>
+      <c r="M106" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4406,7 +5046,13 @@
       <c r="J107" t="n">
         <v>1603.454545454545</v>
       </c>
-      <c r="K107" t="inlineStr">
+      <c r="K107" t="n">
+        <v>0.4521858186937155</v>
+      </c>
+      <c r="L107" t="n">
+        <v>3.854081062423982</v>
+      </c>
+      <c r="M107" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4443,7 +5089,13 @@
       <c r="J108" t="n">
         <v>1803.333333333333</v>
       </c>
-      <c r="K108" t="inlineStr">
+      <c r="K108" t="n">
+        <v>0.3288848765553244</v>
+      </c>
+      <c r="L108" t="n">
+        <v>6.361220771333125</v>
+      </c>
+      <c r="M108" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4480,7 +5132,13 @@
       <c r="J109" t="n">
         <v>1652.833333333333</v>
       </c>
-      <c r="K109" t="inlineStr">
+      <c r="K109" t="n">
+        <v>0.3831168831168831</v>
+      </c>
+      <c r="L109" t="n">
+        <v>7.684385885203695</v>
+      </c>
+      <c r="M109" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4517,7 +5175,13 @@
       <c r="J110" t="n">
         <v>1567.833333333333</v>
       </c>
-      <c r="K110" t="inlineStr">
+      <c r="K110" t="n">
+        <v>0.4407636556478698</v>
+      </c>
+      <c r="L110" t="n">
+        <v>5.05678591709256</v>
+      </c>
+      <c r="M110" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4554,7 +5218,13 @@
       <c r="J111" t="n">
         <v>2489.166666666667</v>
       </c>
-      <c r="K111" t="inlineStr">
+      <c r="K111" t="n">
+        <v>0.4682533427903434</v>
+      </c>
+      <c r="L111" t="n">
+        <v>2.620090545625587</v>
+      </c>
+      <c r="M111" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4591,7 +5261,13 @@
       <c r="J112" t="n">
         <v>1801.25</v>
       </c>
-      <c r="K112" t="inlineStr">
+      <c r="K112" t="n">
+        <v>0.5056249309315947</v>
+      </c>
+      <c r="L112" t="n">
+        <v>4.808921214159589</v>
+      </c>
+      <c r="M112" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4628,7 +5304,13 @@
       <c r="J113" t="n">
         <v>1691.2</v>
       </c>
-      <c r="K113" t="inlineStr">
+      <c r="K113" t="n">
+        <v>0.4391196308129215</v>
+      </c>
+      <c r="L113" t="n">
+        <v>5.339056205639745</v>
+      </c>
+      <c r="M113" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4665,7 +5347,13 @@
       <c r="J114" t="n">
         <v>1614.2</v>
       </c>
-      <c r="K114" t="inlineStr">
+      <c r="K114" t="n">
+        <v>0.464402855489099</v>
+      </c>
+      <c r="L114" t="n">
+        <v>5.902403138793527</v>
+      </c>
+      <c r="M114" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4702,7 +5390,13 @@
       <c r="J115" t="n">
         <v>1808.428571428571</v>
       </c>
-      <c r="K115" t="inlineStr">
+      <c r="K115" t="n">
+        <v>0.5219247378161628</v>
+      </c>
+      <c r="L115" t="n">
+        <v>4.544888048476516</v>
+      </c>
+      <c r="M115" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4739,7 +5433,13 @@
       <c r="J116" t="n">
         <v>1989</v>
       </c>
-      <c r="K116" t="inlineStr">
+      <c r="K116" t="n">
+        <v>0.4844496568499696</v>
+      </c>
+      <c r="L116" t="n">
+        <v>4.990379882768804</v>
+      </c>
+      <c r="M116" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4776,7 +5476,13 @@
       <c r="J117" t="n">
         <v>1758.6</v>
       </c>
-      <c r="K117" t="inlineStr">
+      <c r="K117" t="n">
+        <v>0.4981635695843485</v>
+      </c>
+      <c r="L117" t="n">
+        <v>4.51799083143696</v>
+      </c>
+      <c r="M117" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4813,7 +5519,13 @@
       <c r="J118" t="n">
         <v>1665.75</v>
       </c>
-      <c r="K118" t="inlineStr">
+      <c r="K118" t="n">
+        <v>0.4607966258322868</v>
+      </c>
+      <c r="L118" t="n">
+        <v>6.60474120364081</v>
+      </c>
+      <c r="M118" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4850,7 +5562,13 @@
       <c r="J119" t="n">
         <v>1830</v>
       </c>
-      <c r="K119" t="inlineStr">
+      <c r="K119" t="n">
+        <v>0.4332883733477205</v>
+      </c>
+      <c r="L119" t="n">
+        <v>7.005408234473115</v>
+      </c>
+      <c r="M119" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4887,7 +5605,13 @@
       <c r="J120" t="n">
         <v>1784.75</v>
       </c>
-      <c r="K120" t="inlineStr">
+      <c r="K120" t="n">
+        <v>0.4687319050376375</v>
+      </c>
+      <c r="L120" t="n">
+        <v>4.24525828161874</v>
+      </c>
+      <c r="M120" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4924,7 +5648,13 @@
       <c r="J121" t="n">
         <v>1849.714285714286</v>
       </c>
-      <c r="K121" t="inlineStr">
+      <c r="K121" t="n">
+        <v>0.445998098327647</v>
+      </c>
+      <c r="L121" t="n">
+        <v>3.676348547717843</v>
+      </c>
+      <c r="M121" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4961,7 +5691,13 @@
       <c r="J122" t="n">
         <v>1708.6</v>
       </c>
-      <c r="K122" t="inlineStr">
+      <c r="K122" t="n">
+        <v>0.5202103897975359</v>
+      </c>
+      <c r="L122" t="n">
+        <v>4.034421099687084</v>
+      </c>
+      <c r="M122" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4998,7 +5734,13 @@
       <c r="J123" t="n">
         <v>1779</v>
       </c>
-      <c r="K123" t="inlineStr">
+      <c r="K123" t="n">
+        <v>0.4439998880837134</v>
+      </c>
+      <c r="L123" t="n">
+        <v>4.261049352881159</v>
+      </c>
+      <c r="M123" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5035,7 +5777,13 @@
       <c r="J124" t="n">
         <v>1752.1</v>
       </c>
-      <c r="K124" t="inlineStr">
+      <c r="K124" t="n">
+        <v>0.4834497766578856</v>
+      </c>
+      <c r="L124" t="n">
+        <v>4.048661956069955</v>
+      </c>
+      <c r="M124" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5072,7 +5820,13 @@
       <c r="J125" t="n">
         <v>1680.222222222222</v>
       </c>
-      <c r="K125" t="inlineStr">
+      <c r="K125" t="n">
+        <v>0.497520940143891</v>
+      </c>
+      <c r="L125" t="n">
+        <v>4.303573383947145</v>
+      </c>
+      <c r="M125" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5109,7 +5863,13 @@
       <c r="J126" t="n">
         <v>1633.636363636364</v>
       </c>
-      <c r="K126" t="inlineStr">
+      <c r="K126" t="n">
+        <v>0.4608540601517439</v>
+      </c>
+      <c r="L126" t="n">
+        <v>4.872085865969072</v>
+      </c>
+      <c r="M126" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5146,7 +5906,13 @@
       <c r="J127" t="n">
         <v>1601.636363636364</v>
       </c>
-      <c r="K127" t="inlineStr">
+      <c r="K127" t="n">
+        <v>0.4815777757991274</v>
+      </c>
+      <c r="L127" t="n">
+        <v>4.700351096742798</v>
+      </c>
+      <c r="M127" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5183,7 +5949,13 @@
       <c r="J128" t="n">
         <v>1679.166666666667</v>
       </c>
-      <c r="K128" t="inlineStr">
+      <c r="K128" t="n">
+        <v>0.4646628488198881</v>
+      </c>
+      <c r="L128" t="n">
+        <v>6.25256124721604</v>
+      </c>
+      <c r="M128" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5220,7 +5992,13 @@
       <c r="J129" t="n">
         <v>1836.7</v>
       </c>
-      <c r="K129" t="inlineStr">
+      <c r="K129" t="n">
+        <v>0.5232361896476728</v>
+      </c>
+      <c r="L129" t="n">
+        <v>4.214265695067269</v>
+      </c>
+      <c r="M129" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5257,7 +6035,13 @@
       <c r="J130" t="n">
         <v>1706.625</v>
       </c>
-      <c r="K130" t="inlineStr">
+      <c r="K130" t="n">
+        <v>0.4741669512611602</v>
+      </c>
+      <c r="L130" t="n">
+        <v>4.495582589388963</v>
+      </c>
+      <c r="M130" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5294,7 +6078,13 @@
       <c r="J131" t="n">
         <v>1549.777777777778</v>
       </c>
-      <c r="K131" t="inlineStr">
+      <c r="K131" t="n">
+        <v>0.4574668757528238</v>
+      </c>
+      <c r="L131" t="n">
+        <v>5.79752304147466</v>
+      </c>
+      <c r="M131" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5331,7 +6121,13 @@
       <c r="J132" t="n">
         <v>1737</v>
       </c>
-      <c r="K132" t="inlineStr">
+      <c r="K132" t="n">
+        <v>0.5031823287158368</v>
+      </c>
+      <c r="L132" t="n">
+        <v>4.382132376915552</v>
+      </c>
+      <c r="M132" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5368,7 +6164,13 @@
       <c r="J133" t="n">
         <v>1769.4</v>
       </c>
-      <c r="K133" t="inlineStr">
+      <c r="K133" t="n">
+        <v>0.4925261304461844</v>
+      </c>
+      <c r="L133" t="n">
+        <v>4.072548169258414</v>
+      </c>
+      <c r="M133" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5405,7 +6207,13 @@
       <c r="J134" t="n">
         <v>1621.5</v>
       </c>
-      <c r="K134" t="inlineStr">
+      <c r="K134" t="n">
+        <v>0.4680914930659782</v>
+      </c>
+      <c r="L134" t="n">
+        <v>4.82447817836812</v>
+      </c>
+      <c r="M134" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5442,7 +6250,13 @@
       <c r="J135" t="n">
         <v>1794.571428571429</v>
       </c>
-      <c r="K135" t="inlineStr">
+      <c r="K135" t="n">
+        <v>0.4244485084009601</v>
+      </c>
+      <c r="L135" t="n">
+        <v>5.51947086801427</v>
+      </c>
+      <c r="M135" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5479,7 +6293,13 @@
       <c r="J136" t="n">
         <v>1812.666666666667</v>
       </c>
-      <c r="K136" t="inlineStr">
+      <c r="K136" t="n">
+        <v>0.4994168231689236</v>
+      </c>
+      <c r="L136" t="n">
+        <v>5.136217622900819</v>
+      </c>
+      <c r="M136" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5516,7 +6336,13 @@
       <c r="J137" t="n">
         <v>1840.285714285714</v>
       </c>
-      <c r="K137" t="inlineStr">
+      <c r="K137" t="n">
+        <v>0.497988129966804</v>
+      </c>
+      <c r="L137" t="n">
+        <v>4.900999900999905</v>
+      </c>
+      <c r="M137" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5553,7 +6379,13 @@
       <c r="J138" t="n">
         <v>1948</v>
       </c>
-      <c r="K138" t="inlineStr">
+      <c r="K138" t="n">
+        <v>0.4393411960305502</v>
+      </c>
+      <c r="L138" t="n">
+        <v>4.688141043410766</v>
+      </c>
+      <c r="M138" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5590,7 +6422,13 @@
       <c r="J139" t="n">
         <v>2159.5</v>
       </c>
-      <c r="K139" t="inlineStr">
+      <c r="K139" t="n">
+        <v>0.3706573202976081</v>
+      </c>
+      <c r="L139" t="n">
+        <v>2.948542359616514</v>
+      </c>
+      <c r="M139" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5627,7 +6465,13 @@
       <c r="J140" t="n">
         <v>1736.181818181818</v>
       </c>
-      <c r="K140" t="inlineStr">
+      <c r="K140" t="n">
+        <v>0.4858162997903565</v>
+      </c>
+      <c r="L140" t="n">
+        <v>5.109909040793824</v>
+      </c>
+      <c r="M140" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5664,7 +6508,13 @@
       <c r="J141" t="n">
         <v>1605.375</v>
       </c>
-      <c r="K141" t="inlineStr">
+      <c r="K141" t="n">
+        <v>0.4577257999189955</v>
+      </c>
+      <c r="L141" t="n">
+        <v>5.53508020080813</v>
+      </c>
+      <c r="M141" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5701,7 +6551,13 @@
       <c r="J142" t="n">
         <v>1627.7</v>
       </c>
-      <c r="K142" t="inlineStr">
+      <c r="K142" t="n">
+        <v>0.4807165269889185</v>
+      </c>
+      <c r="L142" t="n">
+        <v>4.67694566813509</v>
+      </c>
+      <c r="M142" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5738,7 +6594,13 @@
       <c r="J143" t="n">
         <v>1952.857142857143</v>
       </c>
-      <c r="K143" t="inlineStr">
+      <c r="K143" t="n">
+        <v>0.5132878808960624</v>
+      </c>
+      <c r="L143" t="n">
+        <v>3.77481410737431</v>
+      </c>
+      <c r="M143" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5775,7 +6637,13 @@
       <c r="J144" t="n">
         <v>1774.416666666667</v>
       </c>
-      <c r="K144" t="inlineStr">
+      <c r="K144" t="n">
+        <v>0.4859011159378022</v>
+      </c>
+      <c r="L144" t="n">
+        <v>4.905774416514275</v>
+      </c>
+      <c r="M144" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5812,7 +6680,13 @@
       <c r="J145" t="n">
         <v>1805.875</v>
       </c>
-      <c r="K145" t="inlineStr">
+      <c r="K145" t="n">
+        <v>0.5104225352112676</v>
+      </c>
+      <c r="L145" t="n">
+        <v>4.079526168127186</v>
+      </c>
+      <c r="M145" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5849,7 +6723,13 @@
       <c r="J146" t="n">
         <v>1828.222222222222</v>
       </c>
-      <c r="K146" t="inlineStr">
+      <c r="K146" t="n">
+        <v>0.394717118262963</v>
+      </c>
+      <c r="L146" t="n">
+        <v>3.754212390909872</v>
+      </c>
+      <c r="M146" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5886,7 +6766,13 @@
       <c r="J147" t="n">
         <v>2023.083333333333</v>
       </c>
-      <c r="K147" t="inlineStr">
+      <c r="K147" t="n">
+        <v>0.4203227864846777</v>
+      </c>
+      <c r="L147" t="n">
+        <v>3.252288053949903</v>
+      </c>
+      <c r="M147" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5923,7 +6809,13 @@
       <c r="J148" t="n">
         <v>2088.666666666667</v>
       </c>
-      <c r="K148" t="inlineStr">
+      <c r="K148" t="n">
+        <v>0.3602762068162081</v>
+      </c>
+      <c r="L148" t="n">
+        <v>2.80491424802111</v>
+      </c>
+      <c r="M148" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5960,7 +6852,13 @@
       <c r="J149" t="n">
         <v>1544.857142857143</v>
       </c>
-      <c r="K149" t="inlineStr">
+      <c r="K149" t="n">
+        <v>0.4608386681777805</v>
+      </c>
+      <c r="L149" t="n">
+        <v>3.92348615240182</v>
+      </c>
+      <c r="M149" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5997,7 +6895,13 @@
       <c r="J150" t="n">
         <v>1532</v>
       </c>
-      <c r="K150" t="inlineStr">
+      <c r="K150" t="n">
+        <v>0.3378123184195236</v>
+      </c>
+      <c r="L150" t="n">
+        <v>5.879155606118093</v>
+      </c>
+      <c r="M150" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6034,7 +6938,13 @@
       <c r="J151" t="n">
         <v>1632.615384615385</v>
       </c>
-      <c r="K151" t="inlineStr">
+      <c r="K151" t="n">
+        <v>0.4712563562342579</v>
+      </c>
+      <c r="L151" t="n">
+        <v>4.293404531678453</v>
+      </c>
+      <c r="M151" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6071,7 +6981,13 @@
       <c r="J152" t="n">
         <v>1698.6</v>
       </c>
-      <c r="K152" t="inlineStr">
+      <c r="K152" t="n">
+        <v>0.4360031987878278</v>
+      </c>
+      <c r="L152" t="n">
+        <v>3.42152199762188</v>
+      </c>
+      <c r="M152" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6108,7 +7024,13 @@
       <c r="J153" t="n">
         <v>1635.375</v>
       </c>
-      <c r="K153" t="inlineStr">
+      <c r="K153" t="n">
+        <v>0.4344857483472418</v>
+      </c>
+      <c r="L153" t="n">
+        <v>4.274670789571893</v>
+      </c>
+      <c r="M153" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6145,7 +7067,13 @@
       <c r="J154" t="n">
         <v>1835.2</v>
       </c>
-      <c r="K154" t="inlineStr">
+      <c r="K154" t="n">
+        <v>0.4045997634873384</v>
+      </c>
+      <c r="L154" t="n">
+        <v>3.327631887849217</v>
+      </c>
+      <c r="M154" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6182,7 +7110,13 @@
       <c r="J155" t="n">
         <v>2203</v>
       </c>
-      <c r="K155" t="inlineStr">
+      <c r="K155" t="n">
+        <v>0.3612021976590154</v>
+      </c>
+      <c r="L155" t="n">
+        <v>2.219035167298149</v>
+      </c>
+      <c r="M155" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6219,7 +7153,13 @@
       <c r="J156" t="n">
         <v>1709.363636363636</v>
       </c>
-      <c r="K156" t="inlineStr">
+      <c r="K156" t="n">
+        <v>0.480884879725086</v>
+      </c>
+      <c r="L156" t="n">
+        <v>3.783585872810232</v>
+      </c>
+      <c r="M156" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6256,7 +7196,13 @@
       <c r="J157" t="n">
         <v>1669.3</v>
       </c>
-      <c r="K157" t="inlineStr">
+      <c r="K157" t="n">
+        <v>0.4645220358733196</v>
+      </c>
+      <c r="L157" t="n">
+        <v>3.953809641883033</v>
+      </c>
+      <c r="M157" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6293,7 +7239,13 @@
       <c r="J158" t="n">
         <v>1463.090909090909</v>
       </c>
-      <c r="K158" t="inlineStr">
+      <c r="K158" t="n">
+        <v>0.4000307563874426</v>
+      </c>
+      <c r="L158" t="n">
+        <v>5.196632420091326</v>
+      </c>
+      <c r="M158" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6330,7 +7282,13 @@
       <c r="J159" t="n">
         <v>1785.888888888889</v>
       </c>
-      <c r="K159" t="inlineStr">
+      <c r="K159" t="n">
+        <v>0.3203286482017363</v>
+      </c>
+      <c r="L159" t="n">
+        <v>2.721724622409557</v>
+      </c>
+      <c r="M159" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6367,7 +7325,13 @@
       <c r="J160" t="n">
         <v>1632.4</v>
       </c>
-      <c r="K160" t="inlineStr">
+      <c r="K160" t="n">
+        <v>0.3863486655309483</v>
+      </c>
+      <c r="L160" t="n">
+        <v>4.260771543086173</v>
+      </c>
+      <c r="M160" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6404,7 +7368,13 @@
       <c r="J161" t="n">
         <v>1602.307692307692</v>
       </c>
-      <c r="K161" t="inlineStr">
+      <c r="K161" t="n">
+        <v>0.4257884805463205</v>
+      </c>
+      <c r="L161" t="n">
+        <v>3.267909850762738</v>
+      </c>
+      <c r="M161" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6441,7 +7411,13 @@
       <c r="J162" t="n">
         <v>1603.545454545455</v>
       </c>
-      <c r="K162" t="inlineStr">
+      <c r="K162" t="n">
+        <v>0.4364095017868404</v>
+      </c>
+      <c r="L162" t="n">
+        <v>3.11599423631124</v>
+      </c>
+      <c r="M162" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6478,7 +7454,13 @@
       <c r="J163" t="n">
         <v>2022.8</v>
       </c>
-      <c r="K163" t="inlineStr">
+      <c r="K163" t="n">
+        <v>0.61305814418844</v>
+      </c>
+      <c r="L163" t="n">
+        <v>2.79798559649306</v>
+      </c>
+      <c r="M163" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6515,7 +7497,13 @@
       <c r="J164" t="n">
         <v>1993.375</v>
       </c>
-      <c r="K164" t="inlineStr">
+      <c r="K164" t="n">
+        <v>0.649857472512556</v>
+      </c>
+      <c r="L164" t="n">
+        <v>2.828948340301065</v>
+      </c>
+      <c r="M164" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6552,7 +7540,13 @@
       <c r="J165" t="n">
         <v>1950.5</v>
       </c>
-      <c r="K165" t="inlineStr">
+      <c r="K165" t="n">
+        <v>0.5770437423815519</v>
+      </c>
+      <c r="L165" t="n">
+        <v>2.773327955130422</v>
+      </c>
+      <c r="M165" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6589,7 +7583,13 @@
       <c r="J166" t="n">
         <v>2183.75</v>
       </c>
-      <c r="K166" t="inlineStr">
+      <c r="K166" t="n">
+        <v>0.5746208650447856</v>
+      </c>
+      <c r="L166" t="n">
+        <v>2.584658087307595</v>
+      </c>
+      <c r="M166" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6626,7 +7626,13 @@
       <c r="J167" t="n">
         <v>2172</v>
       </c>
-      <c r="K167" t="inlineStr">
+      <c r="K167" t="n">
+        <v>0.5628920288399294</v>
+      </c>
+      <c r="L167" t="n">
+        <v>2.523112943248219</v>
+      </c>
+      <c r="M167" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6663,7 +7669,13 @@
       <c r="J168" t="n">
         <v>1870.375</v>
       </c>
-      <c r="K168" t="inlineStr">
+      <c r="K168" t="n">
+        <v>0.5333487725798981</v>
+      </c>
+      <c r="L168" t="n">
+        <v>2.713497973418795</v>
+      </c>
+      <c r="M168" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6700,7 +7712,13 @@
       <c r="J169" t="n">
         <v>2369.5</v>
       </c>
-      <c r="K169" t="inlineStr">
+      <c r="K169" t="n">
+        <v>0.5305300297532848</v>
+      </c>
+      <c r="L169" t="n">
+        <v>2.284467120181406</v>
+      </c>
+      <c r="M169" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6737,7 +7755,13 @@
       <c r="J170" t="n">
         <v>2761.5</v>
       </c>
-      <c r="K170" t="inlineStr">
+      <c r="K170" t="n">
+        <v>0.3421813567431508</v>
+      </c>
+      <c r="L170" t="n">
+        <v>1.195022012989843</v>
+      </c>
+      <c r="M170" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6774,7 +7798,13 @@
       <c r="J171" t="n">
         <v>2183</v>
       </c>
-      <c r="K171" t="inlineStr">
+      <c r="K171" t="n">
+        <v>0.5305840666744298</v>
+      </c>
+      <c r="L171" t="n">
+        <v>2.318590889925996</v>
+      </c>
+      <c r="M171" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6811,7 +7841,13 @@
       <c r="J172" t="n">
         <v>2419.555555555556</v>
       </c>
-      <c r="K172" t="inlineStr">
+      <c r="K172" t="n">
+        <v>0.4993786173348009</v>
+      </c>
+      <c r="L172" t="n">
+        <v>2.241096326985897</v>
+      </c>
+      <c r="M172" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6848,7 +7884,13 @@
       <c r="J173" t="n">
         <v>2205.363636363636</v>
       </c>
-      <c r="K173" t="inlineStr">
+      <c r="K173" t="n">
+        <v>0.3455626116643965</v>
+      </c>
+      <c r="L173" t="n">
+        <v>1.985910052049447</v>
+      </c>
+      <c r="M173" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6885,7 +7927,13 @@
       <c r="J174" t="n">
         <v>2198.5</v>
       </c>
-      <c r="K174" t="inlineStr">
+      <c r="K174" t="n">
+        <v>0.3148355038268497</v>
+      </c>
+      <c r="L174" t="n">
+        <v>1.849229202170379</v>
+      </c>
+      <c r="M174" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6922,7 +7970,13 @@
       <c r="J175" t="n">
         <v>2036.083333333333</v>
       </c>
-      <c r="K175" t="inlineStr">
+      <c r="K175" t="n">
+        <v>0.3565616164402455</v>
+      </c>
+      <c r="L175" t="n">
+        <v>3.348010489850098</v>
+      </c>
+      <c r="M175" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6959,7 +8013,13 @@
       <c r="J176" t="n">
         <v>1983.555555555556</v>
       </c>
-      <c r="K176" t="inlineStr">
+      <c r="K176" t="n">
+        <v>0.3996280058456224</v>
+      </c>
+      <c r="L176" t="n">
+        <v>3.504193849021437</v>
+      </c>
+      <c r="M176" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6996,7 +8056,13 @@
       <c r="J177" t="n">
         <v>1926.6</v>
       </c>
-      <c r="K177" t="inlineStr">
+      <c r="K177" t="n">
+        <v>0.3197698767826834</v>
+      </c>
+      <c r="L177" t="n">
+        <v>3.446825698536397</v>
+      </c>
+      <c r="M177" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7033,7 +8099,13 @@
       <c r="J178" t="n">
         <v>2013.1</v>
       </c>
-      <c r="K178" t="inlineStr">
+      <c r="K178" t="n">
+        <v>0.3270238147642734</v>
+      </c>
+      <c r="L178" t="n">
+        <v>3.215599705665932</v>
+      </c>
+      <c r="M178" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7070,7 +8142,13 @@
       <c r="J179" t="n">
         <v>1658.142857142857</v>
       </c>
-      <c r="K179" t="inlineStr">
+      <c r="K179" t="n">
+        <v>0.4001064862664036</v>
+      </c>
+      <c r="L179" t="n">
+        <v>5.181714934696196</v>
+      </c>
+      <c r="M179" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7107,7 +8185,13 @@
       <c r="J180" t="n">
         <v>2789.666666666667</v>
       </c>
-      <c r="K180" t="inlineStr">
+      <c r="K180" t="n">
+        <v>0.2722298221614227</v>
+      </c>
+      <c r="L180" t="n">
+        <v>1.01236356909416</v>
+      </c>
+      <c r="M180" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7144,7 +8228,13 @@
       <c r="J181" t="n">
         <v>2058</v>
       </c>
-      <c r="K181" t="inlineStr">
+      <c r="K181" t="n">
+        <v>0.5561040784438054</v>
+      </c>
+      <c r="L181" t="n">
+        <v>2.663044656993515</v>
+      </c>
+      <c r="M181" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7181,7 +8271,13 @@
       <c r="J182" t="n">
         <v>2151.6</v>
       </c>
-      <c r="K182" t="inlineStr">
+      <c r="K182" t="n">
+        <v>0.3959465579710145</v>
+      </c>
+      <c r="L182" t="n">
+        <v>1.893887424630826</v>
+      </c>
+      <c r="M182" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7218,7 +8314,13 @@
       <c r="J183" t="n">
         <v>1747.111111111111</v>
       </c>
-      <c r="K183" t="inlineStr">
+      <c r="K183" t="n">
+        <v>0.6439837764758901</v>
+      </c>
+      <c r="L183" t="n">
+        <v>2.817468700268988</v>
+      </c>
+      <c r="M183" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7255,7 +8357,13 @@
       <c r="J184" t="n">
         <v>2170.5</v>
       </c>
-      <c r="K184" t="inlineStr">
+      <c r="K184" t="n">
+        <v>0.4323553823391433</v>
+      </c>
+      <c r="L184" t="n">
+        <v>1.927166272579581</v>
+      </c>
+      <c r="M184" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7292,7 +8400,13 @@
       <c r="J185" t="n">
         <v>1894.333333333333</v>
       </c>
-      <c r="K185" t="inlineStr">
+      <c r="K185" t="n">
+        <v>0.4304846291724441</v>
+      </c>
+      <c r="L185" t="n">
+        <v>2.202249134948096</v>
+      </c>
+      <c r="M185" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7329,7 +8443,13 @@
       <c r="J186" t="n">
         <v>1899.875</v>
       </c>
-      <c r="K186" t="inlineStr">
+      <c r="K186" t="n">
+        <v>0.5328701464315554</v>
+      </c>
+      <c r="L186" t="n">
+        <v>2.579944645518416</v>
+      </c>
+      <c r="M186" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7366,7 +8486,13 @@
       <c r="J187" t="n">
         <v>1933.153846153846</v>
       </c>
-      <c r="K187" t="inlineStr">
+      <c r="K187" t="n">
+        <v>0.4422316860197923</v>
+      </c>
+      <c r="L187" t="n">
+        <v>2.378825584653163</v>
+      </c>
+      <c r="M187" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7403,7 +8529,13 @@
       <c r="J188" t="n">
         <v>1798.727272727273</v>
       </c>
-      <c r="K188" t="inlineStr">
+      <c r="K188" t="n">
+        <v>0.5238950712776752</v>
+      </c>
+      <c r="L188" t="n">
+        <v>2.86391081366166</v>
+      </c>
+      <c r="M188" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7440,7 +8572,13 @@
       <c r="J189" t="n">
         <v>2103.25</v>
       </c>
-      <c r="K189" t="inlineStr">
+      <c r="K189" t="n">
+        <v>0.508997569700445</v>
+      </c>
+      <c r="L189" t="n">
+        <v>2.508647026365019</v>
+      </c>
+      <c r="M189" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7477,7 +8615,13 @@
       <c r="J190" t="n">
         <v>1753</v>
       </c>
-      <c r="K190" t="inlineStr">
+      <c r="K190" t="n">
+        <v>0.565473555154446</v>
+      </c>
+      <c r="L190" t="n">
+        <v>2.921079483480525</v>
+      </c>
+      <c r="M190" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7514,7 +8658,13 @@
       <c r="J191" t="n">
         <v>1781.888888888889</v>
       </c>
-      <c r="K191" t="inlineStr">
+      <c r="K191" t="n">
+        <v>0.2514877102199224</v>
+      </c>
+      <c r="L191" t="n">
+        <v>1.566074823574905</v>
+      </c>
+      <c r="M191" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7551,7 +8701,13 @@
       <c r="J192" t="n">
         <v>1919.111111111111</v>
       </c>
-      <c r="K192" t="inlineStr">
+      <c r="K192" t="n">
+        <v>0.1308821049080789</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0.8262350936967636</v>
+      </c>
+      <c r="M192" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7588,7 +8744,13 @@
       <c r="J193" t="n">
         <v>1899.666666666667</v>
       </c>
-      <c r="K193" t="inlineStr">
+      <c r="K193" t="n">
+        <v>0.4726877912002192</v>
+      </c>
+      <c r="L193" t="n">
+        <v>2.611404877821518</v>
+      </c>
+      <c r="M193" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7625,7 +8787,13 @@
       <c r="J194" t="n">
         <v>1812.272727272727</v>
       </c>
-      <c r="K194" t="inlineStr">
+      <c r="K194" t="n">
+        <v>0.53853703322622</v>
+      </c>
+      <c r="L194" t="n">
+        <v>2.919104902785168</v>
+      </c>
+      <c r="M194" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7662,7 +8830,13 @@
       <c r="J195" t="n">
         <v>1854.363636363636</v>
       </c>
-      <c r="K195" t="inlineStr">
+      <c r="K195" t="n">
+        <v>0.5783637474897406</v>
+      </c>
+      <c r="L195" t="n">
+        <v>2.845442309344484</v>
+      </c>
+      <c r="M195" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7699,7 +8873,13 @@
       <c r="J196" t="n">
         <v>1755.222222222222</v>
       </c>
-      <c r="K196" t="inlineStr">
+      <c r="K196" t="n">
+        <v>0.5490906243270228</v>
+      </c>
+      <c r="L196" t="n">
+        <v>3.015741596954902</v>
+      </c>
+      <c r="M196" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7736,7 +8916,13 @@
       <c r="J197" t="n">
         <v>2556.6</v>
       </c>
-      <c r="K197" t="inlineStr">
+      <c r="K197" t="n">
+        <v>0.3276709074877184</v>
+      </c>
+      <c r="L197" t="n">
+        <v>1.389957558547831</v>
+      </c>
+      <c r="M197" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7773,7 +8959,13 @@
       <c r="J198" t="n">
         <v>1914.777777777778</v>
       </c>
-      <c r="K198" t="inlineStr">
+      <c r="K198" t="n">
+        <v>0.1834050629527653</v>
+      </c>
+      <c r="L198" t="n">
+        <v>1.21990683119377</v>
+      </c>
+      <c r="M198" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7810,7 +9002,13 @@
       <c r="J199" t="n">
         <v>3134.75</v>
       </c>
-      <c r="K199" t="inlineStr">
+      <c r="K199" t="n">
+        <v>0.2250855368550126</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0.8431369643809636</v>
+      </c>
+      <c r="M199" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7847,7 +9045,13 @@
       <c r="J200" t="n">
         <v>1860.625</v>
       </c>
-      <c r="K200" t="inlineStr">
+      <c r="K200" t="n">
+        <v>0.5695000619246171</v>
+      </c>
+      <c r="L200" t="n">
+        <v>2.762148849688645</v>
+      </c>
+      <c r="M200" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7884,7 +9088,13 @@
       <c r="J201" t="n">
         <v>1903</v>
       </c>
-      <c r="K201" t="inlineStr">
+      <c r="K201" t="n">
+        <v>0.5472323630981746</v>
+      </c>
+      <c r="L201" t="n">
+        <v>2.993544626279202</v>
+      </c>
+      <c r="M201" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7921,7 +9131,13 @@
       <c r="J202" t="n">
         <v>1761.888888888889</v>
       </c>
-      <c r="K202" t="inlineStr">
+      <c r="K202" t="n">
+        <v>0.5735285342032501</v>
+      </c>
+      <c r="L202" t="n">
+        <v>2.875880229009157</v>
+      </c>
+      <c r="M202" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7958,7 +9174,13 @@
       <c r="J203" t="n">
         <v>1776.6</v>
       </c>
-      <c r="K203" t="inlineStr">
+      <c r="K203" t="n">
+        <v>0.5272499477970349</v>
+      </c>
+      <c r="L203" t="n">
+        <v>2.910022421054836</v>
+      </c>
+      <c r="M203" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7995,7 +9217,13 @@
       <c r="J204" t="n">
         <v>1829.090909090909</v>
       </c>
-      <c r="K204" t="inlineStr">
+      <c r="K204" t="n">
+        <v>0.5409803234366395</v>
+      </c>
+      <c r="L204" t="n">
+        <v>2.938803263825929</v>
+      </c>
+      <c r="M204" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -8032,7 +9260,13 @@
       <c r="J205" t="n">
         <v>1951.083333333333</v>
       </c>
-      <c r="K205" t="inlineStr">
+      <c r="K205" t="n">
+        <v>0.478300271875944</v>
+      </c>
+      <c r="L205" t="n">
+        <v>2.49514104113043</v>
+      </c>
+      <c r="M205" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -8069,7 +9303,13 @@
       <c r="J206" t="n">
         <v>2089.9</v>
       </c>
-      <c r="K206" t="inlineStr">
+      <c r="K206" t="n">
+        <v>0.5303735508802062</v>
+      </c>
+      <c r="L206" t="n">
+        <v>2.827671458657632</v>
+      </c>
+      <c r="M206" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -8106,7 +9346,13 @@
       <c r="J207" t="n">
         <v>1954.625</v>
       </c>
-      <c r="K207" t="inlineStr">
+      <c r="K207" t="n">
+        <v>0.5284790883088218</v>
+      </c>
+      <c r="L207" t="n">
+        <v>2.931805687440652</v>
+      </c>
+      <c r="M207" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -8143,7 +9389,13 @@
       <c r="J208" t="n">
         <v>1976</v>
       </c>
-      <c r="K208" t="inlineStr">
+      <c r="K208" t="n">
+        <v>0.6068500396720445</v>
+      </c>
+      <c r="L208" t="n">
+        <v>3.032512445482178</v>
+      </c>
+      <c r="M208" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -8180,7 +9432,13 @@
       <c r="J209" t="n">
         <v>1536.545454545455</v>
       </c>
-      <c r="K209" t="inlineStr">
+      <c r="K209" t="n">
+        <v>0.4633541911901369</v>
+      </c>
+      <c r="L209" t="n">
+        <v>3.543094463569468</v>
+      </c>
+      <c r="M209" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -8217,7 +9475,13 @@
       <c r="J210" t="n">
         <v>1868.7</v>
       </c>
-      <c r="K210" t="inlineStr">
+      <c r="K210" t="n">
+        <v>0.5817605157801696</v>
+      </c>
+      <c r="L210" t="n">
+        <v>2.944060482739265</v>
+      </c>
+      <c r="M210" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -8254,7 +9518,13 @@
       <c r="J211" t="n">
         <v>1688</v>
       </c>
-      <c r="K211" t="inlineStr">
+      <c r="K211" t="n">
+        <v>0.4862088576100093</v>
+      </c>
+      <c r="L211" t="n">
+        <v>2.494756615783043</v>
+      </c>
+      <c r="M211" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8291,7 +9561,13 @@
       <c r="J212" t="n">
         <v>1638.833333333333</v>
       </c>
-      <c r="K212" t="inlineStr">
+      <c r="K212" t="n">
+        <v>0.4358158116733252</v>
+      </c>
+      <c r="L212" t="n">
+        <v>2.497901766165524</v>
+      </c>
+      <c r="M212" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8328,7 +9604,13 @@
       <c r="J213" t="n">
         <v>1116</v>
       </c>
-      <c r="K213" t="inlineStr">
+      <c r="K213" t="n">
+        <v>-0.05053517579613617</v>
+      </c>
+      <c r="L213" t="n">
+        <v>0.6349404613206771</v>
+      </c>
+      <c r="M213" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8365,7 +9647,13 @@
       <c r="J214" t="n">
         <v>1688.2</v>
       </c>
-      <c r="K214" t="inlineStr">
+      <c r="K214" t="n">
+        <v>0.4734928918481194</v>
+      </c>
+      <c r="L214" t="n">
+        <v>2.485781766650919</v>
+      </c>
+      <c r="M214" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8402,7 +9690,13 @@
       <c r="J215" t="n">
         <v>1112.583333333333</v>
       </c>
-      <c r="K215" t="inlineStr">
+      <c r="K215" t="n">
+        <v>-0.06505749196913753</v>
+      </c>
+      <c r="L215" t="n">
+        <v>1.358109801955381</v>
+      </c>
+      <c r="M215" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8439,7 +9733,13 @@
       <c r="J216" t="n">
         <v>1082.727272727273</v>
       </c>
-      <c r="K216" t="inlineStr">
+      <c r="K216" t="n">
+        <v>-0.0931501313396646</v>
+      </c>
+      <c r="L216" t="n">
+        <v>1.387857501254389</v>
+      </c>
+      <c r="M216" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8476,7 +9776,13 @@
       <c r="J217" t="n">
         <v>1088.5</v>
       </c>
-      <c r="K217" t="inlineStr">
+      <c r="K217" t="n">
+        <v>-0.09811099721774784</v>
+      </c>
+      <c r="L217" t="n">
+        <v>1.242696837614761</v>
+      </c>
+      <c r="M217" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8513,7 +9819,13 @@
       <c r="J218" t="n">
         <v>1273.4</v>
       </c>
-      <c r="K218" t="inlineStr">
+      <c r="K218" t="n">
+        <v>0.1458084094423857</v>
+      </c>
+      <c r="L218" t="n">
+        <v>3.286635096027358</v>
+      </c>
+      <c r="M218" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8550,7 +9862,13 @@
       <c r="J219" t="n">
         <v>1181.181818181818</v>
       </c>
-      <c r="K219" t="inlineStr">
+      <c r="K219" t="n">
+        <v>-0.03581612509008863</v>
+      </c>
+      <c r="L219" t="n">
+        <v>1.657963446475214</v>
+      </c>
+      <c r="M219" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8587,7 +9905,13 @@
       <c r="J220" t="n">
         <v>1661.5</v>
       </c>
-      <c r="K220" t="inlineStr">
+      <c r="K220" t="n">
+        <v>0.5228809837505489</v>
+      </c>
+      <c r="L220" t="n">
+        <v>2.681773132714659</v>
+      </c>
+      <c r="M220" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8624,7 +9948,13 @@
       <c r="J221" t="n">
         <v>1930.7</v>
       </c>
-      <c r="K221" t="inlineStr">
+      <c r="K221" t="n">
+        <v>0.4831958762886598</v>
+      </c>
+      <c r="L221" t="n">
+        <v>2.366374957926623</v>
+      </c>
+      <c r="M221" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8661,7 +9991,13 @@
       <c r="J222" t="n">
         <v>1659.888888888889</v>
       </c>
-      <c r="K222" t="inlineStr">
+      <c r="K222" t="n">
+        <v>0.5426589595375721</v>
+      </c>
+      <c r="L222" t="n">
+        <v>2.755341629490491</v>
+      </c>
+      <c r="M222" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8698,7 +10034,13 @@
       <c r="J223" t="n">
         <v>1729.692307692308</v>
       </c>
-      <c r="K223" t="inlineStr">
+      <c r="K223" t="n">
+        <v>0.5181551477109914</v>
+      </c>
+      <c r="L223" t="n">
+        <v>2.675624638886151</v>
+      </c>
+      <c r="M223" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8735,7 +10077,13 @@
       <c r="J224" t="n">
         <v>1144.266666666667</v>
       </c>
-      <c r="K224" t="inlineStr">
+      <c r="K224" t="n">
+        <v>-0.08189028110188186</v>
+      </c>
+      <c r="L224" t="n">
+        <v>2.069006402655918</v>
+      </c>
+      <c r="M224" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8772,7 +10120,13 @@
       <c r="J225" t="n">
         <v>1274.333333333333</v>
       </c>
-      <c r="K225" t="inlineStr">
+      <c r="K225" t="n">
+        <v>0.02681321758611032</v>
+      </c>
+      <c r="L225" t="n">
+        <v>33.59649122806695</v>
+      </c>
+      <c r="M225" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8809,7 +10163,13 @@
       <c r="J226" t="n">
         <v>1092</v>
       </c>
-      <c r="K226" t="inlineStr">
+      <c r="K226" t="n">
+        <v>-0.102958673752677</v>
+      </c>
+      <c r="L226" t="n">
+        <v>2.075471698113202</v>
+      </c>
+      <c r="M226" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8846,7 +10206,13 @@
       <c r="J227" t="n">
         <v>1688.538461538461</v>
       </c>
-      <c r="K227" t="inlineStr">
+      <c r="K227" t="n">
+        <v>0.5432807012840791</v>
+      </c>
+      <c r="L227" t="n">
+        <v>2.686978773053315</v>
+      </c>
+      <c r="M227" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8883,7 +10249,13 @@
       <c r="J228" t="n">
         <v>1899.222222222222</v>
       </c>
-      <c r="K228" t="inlineStr">
+      <c r="K228" t="n">
+        <v>0.5132106628921914</v>
+      </c>
+      <c r="L228" t="n">
+        <v>2.477367192393101</v>
+      </c>
+      <c r="M228" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8920,7 +10292,13 @@
       <c r="J229" t="n">
         <v>1900.111111111111</v>
       </c>
-      <c r="K229" t="inlineStr">
+      <c r="K229" t="n">
+        <v>0.5068914499299175</v>
+      </c>
+      <c r="L229" t="n">
+        <v>2.363266713863023</v>
+      </c>
+      <c r="M229" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8957,7 +10335,13 @@
       <c r="J230" t="n">
         <v>1994.307692307692</v>
       </c>
-      <c r="K230" t="inlineStr">
+      <c r="K230" t="n">
+        <v>0.4928162281473859</v>
+      </c>
+      <c r="L230" t="n">
+        <v>2.23461869090016</v>
+      </c>
+      <c r="M230" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8994,7 +10378,13 @@
       <c r="J231" t="n">
         <v>1830.857142857143</v>
       </c>
-      <c r="K231" t="inlineStr">
+      <c r="K231" t="n">
+        <v>0.5401506890056508</v>
+      </c>
+      <c r="L231" t="n">
+        <v>2.545136050449608</v>
+      </c>
+      <c r="M231" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9031,7 +10421,13 @@
       <c r="J232" t="n">
         <v>1769.181818181818</v>
       </c>
-      <c r="K232" t="inlineStr">
+      <c r="K232" t="n">
+        <v>0.5369802237220938</v>
+      </c>
+      <c r="L232" t="n">
+        <v>2.626714279117733</v>
+      </c>
+      <c r="M232" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9068,7 +10464,13 @@
       <c r="J233" t="n">
         <v>2175.6</v>
       </c>
-      <c r="K233" t="inlineStr">
+      <c r="K233" t="n">
+        <v>0.4545388696738678</v>
+      </c>
+      <c r="L233" t="n">
+        <v>2.018057275168433</v>
+      </c>
+      <c r="M233" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9105,7 +10507,13 @@
       <c r="J234" t="n">
         <v>2043.888888888889</v>
       </c>
-      <c r="K234" t="inlineStr">
+      <c r="K234" t="n">
+        <v>0.4821814147897228</v>
+      </c>
+      <c r="L234" t="n">
+        <v>2.141185784658692</v>
+      </c>
+      <c r="M234" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9142,7 +10550,13 @@
       <c r="J235" t="n">
         <v>2012.071428571429</v>
       </c>
-      <c r="K235" t="inlineStr">
+      <c r="K235" t="n">
+        <v>0.494783735826737</v>
+      </c>
+      <c r="L235" t="n">
+        <v>2.196750438601391</v>
+      </c>
+      <c r="M235" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9179,7 +10593,13 @@
       <c r="J236" t="n">
         <v>1943.125</v>
       </c>
-      <c r="K236" t="inlineStr">
+      <c r="K236" t="n">
+        <v>0.4958005192085342</v>
+      </c>
+      <c r="L236" t="n">
+        <v>2.236073122257423</v>
+      </c>
+      <c r="M236" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9216,7 +10636,13 @@
       <c r="J237" t="n">
         <v>1491.454545454545</v>
       </c>
-      <c r="K237" t="inlineStr">
+      <c r="K237" t="n">
+        <v>-0.01925866924586812</v>
+      </c>
+      <c r="L237" t="n">
+        <v>0.324171614633214</v>
+      </c>
+      <c r="M237" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9253,7 +10679,13 @@
       <c r="J238" t="n">
         <v>1556.5</v>
       </c>
-      <c r="K238" t="inlineStr">
+      <c r="K238" t="n">
+        <v>-0.01877551020408163</v>
+      </c>
+      <c r="L238" t="n">
+        <v>0.2568788709513656</v>
+      </c>
+      <c r="M238" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9290,7 +10722,13 @@
       <c r="J239" t="n">
         <v>1486</v>
       </c>
-      <c r="K239" t="inlineStr">
+      <c r="K239" t="n">
+        <v>-0.0200318846607056</v>
+      </c>
+      <c r="L239" t="n">
+        <v>0.3973054715424778</v>
+      </c>
+      <c r="M239" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9327,7 +10765,13 @@
       <c r="J240" t="n">
         <v>1625.875</v>
       </c>
-      <c r="K240" t="inlineStr">
+      <c r="K240" t="n">
+        <v>-0.01818695483278596</v>
+      </c>
+      <c r="L240" t="n">
+        <v>0.3826151560178306</v>
+      </c>
+      <c r="M240" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9364,7 +10808,13 @@
       <c r="J241" t="n">
         <v>1714.857142857143</v>
       </c>
-      <c r="K241" t="inlineStr">
+      <c r="K241" t="n">
+        <v>-0.003610931620358078</v>
+      </c>
+      <c r="L241" t="n">
+        <v>-0.1286565547128934</v>
+      </c>
+      <c r="M241" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9401,7 +10851,13 @@
       <c r="J242" t="n">
         <v>2663</v>
       </c>
-      <c r="K242" t="inlineStr">
+      <c r="K242" t="n">
+        <v>0.3833915492957746</v>
+      </c>
+      <c r="L242" t="n">
+        <v>1.737758166329595</v>
+      </c>
+      <c r="M242" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9438,7 +10894,13 @@
       <c r="J243" t="n">
         <v>2744</v>
       </c>
-      <c r="K243" t="inlineStr">
+      <c r="K243" t="n">
+        <v>0.2911040013296214</v>
+      </c>
+      <c r="L243" t="n">
+        <v>1.17528644042207</v>
+      </c>
+      <c r="M243" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9475,7 +10937,13 @@
       <c r="J244" t="n">
         <v>1420.285714285714</v>
       </c>
-      <c r="K244" t="inlineStr">
+      <c r="K244" t="n">
+        <v>-0.02104766399244922</v>
+      </c>
+      <c r="L244" t="n">
+        <v>0.3785435409947372</v>
+      </c>
+      <c r="M244" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9512,7 +10980,13 @@
       <c r="J245" t="n">
         <v>2333.909090909091</v>
       </c>
-      <c r="K245" t="inlineStr">
+      <c r="K245" t="n">
+        <v>0.1726532703364262</v>
+      </c>
+      <c r="L245" t="n">
+        <v>0.6108433249640836</v>
+      </c>
+      <c r="M245" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9549,7 +11023,13 @@
       <c r="J246" t="n">
         <v>1577.111111111111</v>
       </c>
-      <c r="K246" t="inlineStr">
+      <c r="K246" t="n">
+        <v>0.09741192185673733</v>
+      </c>
+      <c r="L246" t="n">
+        <v>1.355735266778213</v>
+      </c>
+      <c r="M246" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9586,7 +11066,13 @@
       <c r="J247" t="n">
         <v>1431.857142857143</v>
       </c>
-      <c r="K247" t="inlineStr">
+      <c r="K247" t="n">
+        <v>0.04598886368323362</v>
+      </c>
+      <c r="L247" t="n">
+        <v>1.402074819239217</v>
+      </c>
+      <c r="M247" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9623,7 +11109,13 @@
       <c r="J248" t="n">
         <v>1333.857142857143</v>
       </c>
-      <c r="K248" t="inlineStr">
+      <c r="K248" t="n">
+        <v>0.04278296988577365</v>
+      </c>
+      <c r="L248" t="n">
+        <v>4.341412012644925</v>
+      </c>
+      <c r="M248" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9660,7 +11152,13 @@
       <c r="J249" t="n">
         <v>1956.285714285714</v>
       </c>
-      <c r="K249" t="inlineStr">
+      <c r="K249" t="n">
+        <v>0.04042015689403006</v>
+      </c>
+      <c r="L249" t="n">
+        <v>1.152169793443247</v>
+      </c>
+      <c r="M249" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9697,7 +11195,13 @@
       <c r="J250" t="n">
         <v>1857.4</v>
       </c>
-      <c r="K250" t="inlineStr">
+      <c r="K250" t="n">
+        <v>0.1966159052453468</v>
+      </c>
+      <c r="L250" t="n">
+        <v>1.418061366806136</v>
+      </c>
+      <c r="M250" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9734,7 +11238,13 @@
       <c r="J251" t="n">
         <v>1949.25</v>
       </c>
-      <c r="K251" t="inlineStr">
+      <c r="K251" t="n">
+        <v>0.1944296296296296</v>
+      </c>
+      <c r="L251" t="n">
+        <v>1.208649524791866</v>
+      </c>
+      <c r="M251" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9771,7 +11281,13 @@
       <c r="J252" t="n">
         <v>1059.8</v>
       </c>
-      <c r="K252" t="inlineStr">
+      <c r="K252" t="n">
+        <v>-0.003691894613190113</v>
+      </c>
+      <c r="L252" t="n">
+        <v>0.01819836214740665</v>
+      </c>
+      <c r="M252" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9808,7 +11324,13 @@
       <c r="J253" t="n">
         <v>1055.714285714286</v>
       </c>
-      <c r="K253" t="inlineStr">
+      <c r="K253" t="n">
+        <v>-0.006766553890768487</v>
+      </c>
+      <c r="L253" t="n">
+        <v>0.03377155952237363</v>
+      </c>
+      <c r="M253" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9845,7 +11367,13 @@
       <c r="J254" t="n">
         <v>2189.666666666667</v>
       </c>
-      <c r="K254" t="inlineStr">
+      <c r="K254" t="n">
+        <v>0.3836312548574161</v>
+      </c>
+      <c r="L254" t="n">
+        <v>1.787963220952911</v>
+      </c>
+      <c r="M254" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9882,7 +11410,13 @@
       <c r="J255" t="n">
         <v>1675.4</v>
       </c>
-      <c r="K255" t="inlineStr">
+      <c r="K255" t="n">
+        <v>0.3499403849429399</v>
+      </c>
+      <c r="L255" t="n">
+        <v>2.790871425660533</v>
+      </c>
+      <c r="M255" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9919,7 +11453,13 @@
       <c r="J256" t="n">
         <v>1080.666666666667</v>
       </c>
-      <c r="K256" t="inlineStr">
+      <c r="K256" t="n">
+        <v>0.006952169076751979</v>
+      </c>
+      <c r="L256" t="n">
+        <v>-0.03631082062454628</v>
+      </c>
+      <c r="M256" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9956,7 +11496,13 @@
       <c r="J257" t="n">
         <v>1044</v>
       </c>
-      <c r="K257" t="inlineStr">
+      <c r="K257" t="n">
+        <v>-0.0130092617377804</v>
+      </c>
+      <c r="L257" t="n">
+        <v>0.06159383554699382</v>
+      </c>
+      <c r="M257" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9993,7 +11539,13 @@
       <c r="J258" t="n">
         <v>2119</v>
       </c>
-      <c r="K258" t="inlineStr">
+      <c r="K258" t="n">
+        <v>0.6681559208099357</v>
+      </c>
+      <c r="L258" t="n">
+        <v>2.951475647293138</v>
+      </c>
+      <c r="M258" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10030,7 +11582,13 @@
       <c r="J259" t="n">
         <v>1041.166666666667</v>
       </c>
-      <c r="K259" t="inlineStr">
+      <c r="K259" t="n">
+        <v>-0.01120068488264254</v>
+      </c>
+      <c r="L259" t="n">
+        <v>0.05077948120835774</v>
+      </c>
+      <c r="M259" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10067,7 +11625,13 @@
       <c r="J260" t="n">
         <v>1920.25</v>
       </c>
-      <c r="K260" t="inlineStr">
+      <c r="K260" t="n">
+        <v>0.4858793052193485</v>
+      </c>
+      <c r="L260" t="n">
+        <v>2.792940142564203</v>
+      </c>
+      <c r="M260" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10104,7 +11668,13 @@
       <c r="J261" t="n">
         <v>1740.75</v>
       </c>
-      <c r="K261" t="inlineStr">
+      <c r="K261" t="n">
+        <v>0.3517227339813731</v>
+      </c>
+      <c r="L261" t="n">
+        <v>2.508347851335656</v>
+      </c>
+      <c r="M261" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10141,7 +11711,13 @@
       <c r="J262" t="n">
         <v>1074.545454545455</v>
       </c>
-      <c r="K262" t="inlineStr">
+      <c r="K262" t="n">
+        <v>-0.01460078383155304</v>
+      </c>
+      <c r="L262" t="n">
+        <v>0.1059617422341194</v>
+      </c>
+      <c r="M262" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10178,7 +11754,13 @@
       <c r="J263" t="n">
         <v>1160</v>
       </c>
-      <c r="K263" t="inlineStr">
+      <c r="K263" t="n">
+        <v>0.08837459634015066</v>
+      </c>
+      <c r="L263" t="n">
+        <v>-1.304002541296053</v>
+      </c>
+      <c r="M263" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10215,7 +11797,13 @@
       <c r="J264" t="n">
         <v>1150.857142857143</v>
       </c>
-      <c r="K264" t="inlineStr">
+      <c r="K264" t="n">
+        <v>0.02785229153587127</v>
+      </c>
+      <c r="L264" t="n">
+        <v>-0.2461786813297685</v>
+      </c>
+      <c r="M264" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10252,7 +11840,13 @@
       <c r="J265" t="n">
         <v>1046.692307692308</v>
       </c>
-      <c r="K265" t="inlineStr">
+      <c r="K265" t="n">
+        <v>-0.03220753793441018</v>
+      </c>
+      <c r="L265" t="n">
+        <v>0.1835664335664332</v>
+      </c>
+      <c r="M265" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10289,7 +11883,13 @@
       <c r="J266" t="n">
         <v>1281.285714285714</v>
       </c>
-      <c r="K266" t="inlineStr">
+      <c r="K266" t="n">
+        <v>0.1252639332187577</v>
+      </c>
+      <c r="L266" t="n">
+        <v>-3.072753553360618</v>
+      </c>
+      <c r="M266" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10326,7 +11926,13 @@
       <c r="J267" t="n">
         <v>1039.625</v>
       </c>
-      <c r="K267" t="inlineStr">
+      <c r="K267" t="n">
+        <v>-0.03156659912551989</v>
+      </c>
+      <c r="L267" t="n">
+        <v>0.1869158878504673</v>
+      </c>
+      <c r="M267" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10363,7 +11969,13 @@
       <c r="J268" t="n">
         <v>1053.416666666667</v>
       </c>
-      <c r="K268" t="inlineStr">
+      <c r="K268" t="n">
+        <v>-0.03042553933015021</v>
+      </c>
+      <c r="L268" t="n">
+        <v>0.1648413897280966</v>
+      </c>
+      <c r="M268" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10400,7 +12012,13 @@
       <c r="J269" t="n">
         <v>1958.625</v>
       </c>
-      <c r="K269" t="inlineStr">
+      <c r="K269" t="n">
+        <v>0.5384493041749503</v>
+      </c>
+      <c r="L269" t="n">
+        <v>2.877541913686492</v>
+      </c>
+      <c r="M269" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10437,7 +12055,13 @@
       <c r="J270" t="n">
         <v>1062.333333333333</v>
       </c>
-      <c r="K270" t="inlineStr">
+      <c r="K270" t="n">
+        <v>-0.01365593834995462</v>
+      </c>
+      <c r="L270" t="n">
+        <v>0.09186901993672048</v>
+      </c>
+      <c r="M270" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10474,7 +12098,13 @@
       <c r="J271" t="n">
         <v>1120.538461538461</v>
       </c>
-      <c r="K271" t="inlineStr">
+      <c r="K271" t="n">
+        <v>0.06529553892392004</v>
+      </c>
+      <c r="L271" t="n">
+        <v>-0.6248237748829866</v>
+      </c>
+      <c r="M271" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10511,7 +12141,13 @@
       <c r="J272" t="n">
         <v>1250.076923076923</v>
       </c>
-      <c r="K272" t="inlineStr">
+      <c r="K272" t="n">
+        <v>0.0701613572832194</v>
+      </c>
+      <c r="L272" t="n">
+        <v>-1.072153611910001</v>
+      </c>
+      <c r="M272" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10548,7 +12184,13 @@
       <c r="J273" t="n">
         <v>1084.714285714286</v>
       </c>
-      <c r="K273" t="inlineStr">
+      <c r="K273" t="n">
+        <v>-0.01307075636110142</v>
+      </c>
+      <c r="L273" t="n">
+        <v>0.075691314001211</v>
+      </c>
+      <c r="M273" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10585,7 +12227,13 @@
       <c r="J274" t="n">
         <v>2008.125</v>
       </c>
-      <c r="K274" t="inlineStr">
+      <c r="K274" t="n">
+        <v>0.5157019583119903</v>
+      </c>
+      <c r="L274" t="n">
+        <v>2.885552395440615</v>
+      </c>
+      <c r="M274" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10622,7 +12270,13 @@
       <c r="J275" t="n">
         <v>1246.5</v>
       </c>
-      <c r="K275" t="inlineStr">
+      <c r="K275" t="n">
+        <v>0.03164867517173699</v>
+      </c>
+      <c r="L275" t="n">
+        <v>-0.2798264642082428</v>
+      </c>
+      <c r="M275" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10659,7 +12313,13 @@
       <c r="J276" t="n">
         <v>1249.545454545455</v>
       </c>
-      <c r="K276" t="inlineStr">
+      <c r="K276" t="n">
+        <v>0.07920729390907942</v>
+      </c>
+      <c r="L276" t="n">
+        <v>-1.141735876608558</v>
+      </c>
+      <c r="M276" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10696,7 +12356,13 @@
       <c r="J277" t="n">
         <v>1132.2</v>
       </c>
-      <c r="K277" t="inlineStr">
+      <c r="K277" t="n">
+        <v>0.01247881682329383</v>
+      </c>
+      <c r="L277" t="n">
+        <v>-0.08873308867831538</v>
+      </c>
+      <c r="M277" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10733,7 +12399,13 @@
       <c r="J278" t="n">
         <v>1104.363636363636</v>
       </c>
-      <c r="K278" t="inlineStr">
+      <c r="K278" t="n">
+        <v>-0.01286102741236135</v>
+      </c>
+      <c r="L278" t="n">
+        <v>0.08147113594041014</v>
+      </c>
+      <c r="M278" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10770,7 +12442,13 @@
       <c r="J279" t="n">
         <v>1081.1</v>
       </c>
-      <c r="K279" t="inlineStr">
+      <c r="K279" t="n">
+        <v>-0.01093929922684648</v>
+      </c>
+      <c r="L279" t="n">
+        <v>0.07211408122322796</v>
+      </c>
+      <c r="M279" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10807,7 +12485,13 @@
       <c r="J280" t="n">
         <v>1076.444444444444</v>
       </c>
-      <c r="K280" t="inlineStr">
+      <c r="K280" t="n">
+        <v>-0.01170433060232287</v>
+      </c>
+      <c r="L280" t="n">
+        <v>0.06957824876900028</v>
+      </c>
+      <c r="M280" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10844,7 +12528,13 @@
       <c r="J281" t="n">
         <v>1062.375</v>
       </c>
-      <c r="K281" t="inlineStr">
+      <c r="K281" t="n">
+        <v>-0.03157246265208687</v>
+      </c>
+      <c r="L281" t="n">
+        <v>0.1809781649108352</v>
+      </c>
+      <c r="M281" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10881,7 +12571,13 @@
       <c r="J282" t="n">
         <v>1074.875</v>
       </c>
-      <c r="K282" t="inlineStr">
+      <c r="K282" t="n">
+        <v>-0.02266405686617905</v>
+      </c>
+      <c r="L282" t="n">
+        <v>0.1454449292608753</v>
+      </c>
+      <c r="M282" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10918,7 +12614,13 @@
       <c r="J283" t="n">
         <v>1389.454545454545</v>
       </c>
-      <c r="K283" t="inlineStr">
+      <c r="K283" t="n">
+        <v>0.07739617586164906</v>
+      </c>
+      <c r="L283" t="n">
+        <v>-1.962934362934363</v>
+      </c>
+      <c r="M283" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10955,7 +12657,13 @@
       <c r="J284" t="n">
         <v>1130.454545454545</v>
       </c>
-      <c r="K284" t="inlineStr">
+      <c r="K284" t="n">
+        <v>0.008069164265129641</v>
+      </c>
+      <c r="L284" t="n">
+        <v>-0.06461662724283129</v>
+      </c>
+      <c r="M284" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10992,7 +12700,13 @@
       <c r="J285" t="n">
         <v>1063.875</v>
       </c>
-      <c r="K285" t="inlineStr">
+      <c r="K285" t="n">
+        <v>-0.01152026332030446</v>
+      </c>
+      <c r="L285" t="n">
+        <v>0.08094825093957791</v>
+      </c>
+      <c r="M285" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -11029,7 +12743,13 @@
       <c r="J286" t="n">
         <v>1066.222222222222</v>
       </c>
-      <c r="K286" t="inlineStr">
+      <c r="K286" t="n">
+        <v>-0.03011769066814936</v>
+      </c>
+      <c r="L286" t="n">
+        <v>0.1721580675919056</v>
+      </c>
+      <c r="M286" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -11066,7 +12786,13 @@
       <c r="J287" t="n">
         <v>1055.166666666667</v>
       </c>
-      <c r="K287" t="inlineStr">
+      <c r="K287" t="n">
+        <v>-0.02726448643748695</v>
+      </c>
+      <c r="L287" t="n">
+        <v>0.1811694930960988</v>
+      </c>
+      <c r="M287" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -11103,7 +12829,13 @@
       <c r="J288" t="n">
         <v>1091.125</v>
       </c>
-      <c r="K288" t="inlineStr">
+      <c r="K288" t="n">
+        <v>-0.01557285873192436</v>
+      </c>
+      <c r="L288" t="n">
+        <v>0.09545651769664662</v>
+      </c>
+      <c r="M288" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -11140,7 +12872,13 @@
       <c r="J289" t="n">
         <v>1056.454545454545</v>
       </c>
-      <c r="K289" t="inlineStr">
+      <c r="K289" t="n">
+        <v>-0.02733758918512958</v>
+      </c>
+      <c r="L289" t="n">
+        <v>0.1552040250714196</v>
+      </c>
+      <c r="M289" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -11177,7 +12915,13 @@
       <c r="J290" t="n">
         <v>2238.666666666667</v>
       </c>
-      <c r="K290" t="inlineStr">
+      <c r="K290" t="n">
+        <v>0.4267047305194184</v>
+      </c>
+      <c r="L290" t="n">
+        <v>2.190992444514403</v>
+      </c>
+      <c r="M290" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -11214,7 +12958,13 @@
       <c r="J291" t="n">
         <v>1057</v>
       </c>
-      <c r="K291" t="inlineStr">
+      <c r="K291" t="n">
+        <v>-0.02106362607711718</v>
+      </c>
+      <c r="L291" t="n">
+        <v>0.1341909726072968</v>
+      </c>
+      <c r="M291" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -11251,7 +13001,13 @@
       <c r="J292" t="n">
         <v>1166.166666666667</v>
       </c>
-      <c r="K292" t="inlineStr">
+      <c r="K292" t="n">
+        <v>0.0252412294715317</v>
+      </c>
+      <c r="L292" t="n">
+        <v>-0.2301864801864799</v>
+      </c>
+      <c r="M292" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -11288,7 +13044,13 @@
       <c r="J293" t="n">
         <v>1231.777777777778</v>
       </c>
-      <c r="K293" t="inlineStr">
+      <c r="K293" t="n">
+        <v>0.06559437044483539</v>
+      </c>
+      <c r="L293" t="n">
+        <v>-0.9463379260333588</v>
+      </c>
+      <c r="M293" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -11325,7 +13087,13 @@
       <c r="J294" t="n">
         <v>1199.444444444444</v>
       </c>
-      <c r="K294" t="inlineStr">
+      <c r="K294" t="n">
+        <v>0.07623318385650223</v>
+      </c>
+      <c r="L294" t="n">
+        <v>-0.9956212370005472</v>
+      </c>
+      <c r="M294" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -11362,7 +13130,13 @@
       <c r="J295" t="n">
         <v>2321</v>
       </c>
-      <c r="K295" t="inlineStr">
+      <c r="K295" t="n">
+        <v>0.4969073486523731</v>
+      </c>
+      <c r="L295" t="n">
+        <v>2.388618437268919</v>
+      </c>
+      <c r="M295" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -11399,7 +13173,13 @@
       <c r="J296" t="n">
         <v>1281.5</v>
       </c>
-      <c r="K296" t="inlineStr">
+      <c r="K296" t="n">
+        <v>0.04012345679012345</v>
+      </c>
+      <c r="L296" t="n">
+        <v>-0.4577953260057624</v>
+      </c>
+      <c r="M296" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -11436,7 +13216,13 @@
       <c r="J297" t="n">
         <v>1271.2</v>
       </c>
-      <c r="K297" t="inlineStr">
+      <c r="K297" t="n">
+        <v>-0.008237232289950576</v>
+      </c>
+      <c r="L297" t="n">
+        <v>0.06115069658619583</v>
+      </c>
+      <c r="M297" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -11473,7 +13259,13 @@
       <c r="J298" t="n">
         <v>1406</v>
       </c>
-      <c r="K298" t="inlineStr">
+      <c r="K298" t="n">
+        <v>0.1035470224536283</v>
+      </c>
+      <c r="L298" t="n">
+        <v>-2.634105960264915</v>
+      </c>
+      <c r="M298" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -11510,7 +13302,13 @@
       <c r="J299" t="n">
         <v>1166.25</v>
       </c>
-      <c r="K299" t="inlineStr">
+      <c r="K299" t="n">
+        <v>0.009487912659214942</v>
+      </c>
+      <c r="L299" t="n">
+        <v>-0.08321933424532578</v>
+      </c>
+      <c r="M299" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -11547,7 +13345,13 @@
       <c r="J300" t="n">
         <v>1263.75</v>
       </c>
-      <c r="K300" t="inlineStr">
+      <c r="K300" t="n">
+        <v>0.02312577870969697</v>
+      </c>
+      <c r="L300" t="n">
+        <v>-0.2178393542107972</v>
+      </c>
+      <c r="M300" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -11584,7 +13388,13 @@
       <c r="J301" t="n">
         <v>1987.666666666667</v>
       </c>
-      <c r="K301" t="inlineStr">
+      <c r="K301" t="n">
+        <v>0.4683317399617591</v>
+      </c>
+      <c r="L301" t="n">
+        <v>2.475600897002622</v>
+      </c>
+      <c r="M301" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -11621,7 +13431,13 @@
       <c r="J302" t="n">
         <v>1406.666666666667</v>
       </c>
-      <c r="K302" t="inlineStr">
+      <c r="K302" t="n">
+        <v>-0.03131323889658111</v>
+      </c>
+      <c r="L302" t="n">
+        <v>0.1911946413474671</v>
+      </c>
+      <c r="M302" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -11658,7 +13474,13 @@
       <c r="J303" t="n">
         <v>1194</v>
       </c>
-      <c r="K303" t="inlineStr">
+      <c r="K303" t="n">
+        <v>-0.03433908544842187</v>
+      </c>
+      <c r="L303" t="n">
+        <v>0.2066357444319079</v>
+      </c>
+      <c r="M303" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -11695,7 +13517,13 @@
       <c r="J304" t="n">
         <v>1201.083333333333</v>
       </c>
-      <c r="K304" t="inlineStr">
+      <c r="K304" t="n">
+        <v>-0.009685863874345578</v>
+      </c>
+      <c r="L304" t="n">
+        <v>0.07173670689738765</v>
+      </c>
+      <c r="M304" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -11732,7 +13560,13 @@
       <c r="J305" t="n">
         <v>1085.333333333333</v>
       </c>
-      <c r="K305" t="inlineStr">
+      <c r="K305" t="n">
+        <v>-0.01595030221625252</v>
+      </c>
+      <c r="L305" t="n">
+        <v>0.1048449398521136</v>
+      </c>
+      <c r="M305" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -11769,7 +13603,13 @@
       <c r="J306" t="n">
         <v>1125.857142857143</v>
       </c>
-      <c r="K306" t="inlineStr">
+      <c r="K306" t="n">
+        <v>-0.03222465185867188</v>
+      </c>
+      <c r="L306" t="n">
+        <v>0.1872909698996655</v>
+      </c>
+      <c r="M306" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -11806,7 +13646,13 @@
       <c r="J307" t="n">
         <v>1066</v>
       </c>
-      <c r="K307" t="inlineStr">
+      <c r="K307" t="n">
+        <v>-0.02804720722442542</v>
+      </c>
+      <c r="L307" t="n">
+        <v>0.1760753494510765</v>
+      </c>
+      <c r="M307" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -11843,7 +13689,13 @@
       <c r="J308" t="n">
         <v>1385.7</v>
       </c>
-      <c r="K308" t="inlineStr">
+      <c r="K308" t="n">
+        <v>-0.01433465260917289</v>
+      </c>
+      <c r="L308" t="n">
+        <v>0.1299288556614017</v>
+      </c>
+      <c r="M308" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -11880,7 +13732,13 @@
       <c r="J309" t="n">
         <v>1506.375</v>
       </c>
-      <c r="K309" t="inlineStr">
+      <c r="K309" t="n">
+        <v>-0.02613818561467616</v>
+      </c>
+      <c r="L309" t="n">
+        <v>0.1960729469680018</v>
+      </c>
+      <c r="M309" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -11917,7 +13775,13 @@
       <c r="J310" t="n">
         <v>1067.625</v>
       </c>
-      <c r="K310" t="inlineStr">
+      <c r="K310" t="n">
+        <v>-0.03104531657702753</v>
+      </c>
+      <c r="L310" t="n">
+        <v>0.1682442571857324</v>
+      </c>
+      <c r="M310" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -11954,7 +13818,13 @@
       <c r="J311" t="n">
         <v>3583</v>
       </c>
-      <c r="K311" t="inlineStr">
+      <c r="K311" t="n">
+        <v>0.06258971372857029</v>
+      </c>
+      <c r="L311" t="n">
+        <v>0.423415170392085</v>
+      </c>
+      <c r="M311" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -11991,7 +13861,13 @@
       <c r="J312" t="n">
         <v>3592</v>
       </c>
-      <c r="K312" t="inlineStr">
+      <c r="K312" t="n">
+        <v>0.0781653209023558</v>
+      </c>
+      <c r="L312" t="n">
+        <v>0.3213405730972804</v>
+      </c>
+      <c r="M312" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12028,7 +13904,13 @@
       <c r="J313" t="n">
         <v>3951.5</v>
       </c>
-      <c r="K313" t="inlineStr">
+      <c r="K313" t="n">
+        <v>0.06983222930724943</v>
+      </c>
+      <c r="L313" t="n">
+        <v>0.3884431282068943</v>
+      </c>
+      <c r="M313" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12065,7 +13947,13 @@
       <c r="J314" t="n">
         <v>3131.4</v>
       </c>
-      <c r="K314" t="inlineStr">
+      <c r="K314" t="n">
+        <v>0.03931757166363557</v>
+      </c>
+      <c r="L314" t="n">
+        <v>0.4162082874954163</v>
+      </c>
+      <c r="M314" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12102,7 +13990,13 @@
       <c r="J315" t="n">
         <v>3905.8</v>
       </c>
-      <c r="K315" t="inlineStr">
+      <c r="K315" t="n">
+        <v>0.05616650675326593</v>
+      </c>
+      <c r="L315" t="n">
+        <v>0.3014338905173097</v>
+      </c>
+      <c r="M315" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12139,7 +14033,13 @@
       <c r="J316" t="n">
         <v>3586</v>
       </c>
-      <c r="K316" t="inlineStr">
+      <c r="K316" t="n">
+        <v>0.08010772892396337</v>
+      </c>
+      <c r="L316" t="n">
+        <v>0.3529639033005846</v>
+      </c>
+      <c r="M316" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12176,7 +14076,13 @@
       <c r="J317" t="n">
         <v>3045.428571428572</v>
       </c>
-      <c r="K317" t="inlineStr">
+      <c r="K317" t="n">
+        <v>0.101034599207933</v>
+      </c>
+      <c r="L317" t="n">
+        <v>0.7344342780629334</v>
+      </c>
+      <c r="M317" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12213,7 +14119,13 @@
       <c r="J318" t="n">
         <v>3501.142857142857</v>
       </c>
-      <c r="K318" t="inlineStr">
+      <c r="K318" t="n">
+        <v>0.0874650251818691</v>
+      </c>
+      <c r="L318" t="n">
+        <v>0.515688409383352</v>
+      </c>
+      <c r="M318" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12250,7 +14162,13 @@
       <c r="J319" t="n">
         <v>3871.142857142857</v>
       </c>
-      <c r="K319" t="inlineStr">
+      <c r="K319" t="n">
+        <v>0.0257728409795056</v>
+      </c>
+      <c r="L319" t="n">
+        <v>0.7582714382174176</v>
+      </c>
+      <c r="M319" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12287,7 +14205,13 @@
       <c r="J320" t="n">
         <v>3555.25</v>
       </c>
-      <c r="K320" t="inlineStr">
+      <c r="K320" t="n">
+        <v>0.07625976825653463</v>
+      </c>
+      <c r="L320" t="n">
+        <v>0.376621176926055</v>
+      </c>
+      <c r="M320" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12324,7 +14248,13 @@
       <c r="J321" t="n">
         <v>3593</v>
       </c>
-      <c r="K321" t="inlineStr">
+      <c r="K321" t="n">
+        <v>0.08084343520573677</v>
+      </c>
+      <c r="L321" t="n">
+        <v>0.3025317466656021</v>
+      </c>
+      <c r="M321" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12361,7 +14291,13 @@
       <c r="J322" t="n">
         <v>3590.4</v>
       </c>
-      <c r="K322" t="inlineStr">
+      <c r="K322" t="n">
+        <v>0.05759393515622124</v>
+      </c>
+      <c r="L322" t="n">
+        <v>0.3141182610091927</v>
+      </c>
+      <c r="M322" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12398,7 +14334,13 @@
       <c r="J323" t="n">
         <v>3406</v>
       </c>
-      <c r="K323" t="inlineStr">
+      <c r="K323" t="n">
+        <v>0.08003785574258102</v>
+      </c>
+      <c r="L323" t="n">
+        <v>0.3657255822573672</v>
+      </c>
+      <c r="M323" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12435,7 +14377,13 @@
       <c r="J324" t="n">
         <v>3922.857142857143</v>
       </c>
-      <c r="K324" t="inlineStr">
+      <c r="K324" t="n">
+        <v>0.06731373108763913</v>
+      </c>
+      <c r="L324" t="n">
+        <v>0.3937349719476356</v>
+      </c>
+      <c r="M324" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12472,7 +14420,13 @@
       <c r="J325" t="n">
         <v>3099.142857142857</v>
       </c>
-      <c r="K325" t="inlineStr">
+      <c r="K325" t="n">
+        <v>0.0834440284989736</v>
+      </c>
+      <c r="L325" t="n">
+        <v>0.3687595058302431</v>
+      </c>
+      <c r="M325" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12509,7 +14463,13 @@
       <c r="J326" t="n">
         <v>3942.428571428572</v>
       </c>
-      <c r="K326" t="inlineStr">
+      <c r="K326" t="n">
+        <v>0.07186085818657659</v>
+      </c>
+      <c r="L326" t="n">
+        <v>0.4185056996792942</v>
+      </c>
+      <c r="M326" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12546,7 +14506,13 @@
       <c r="J327" t="n">
         <v>5159.2</v>
       </c>
-      <c r="K327" t="inlineStr">
+      <c r="K327" t="n">
+        <v>0.06138559956444802</v>
+      </c>
+      <c r="L327" t="n">
+        <v>0.4580772941953168</v>
+      </c>
+      <c r="M327" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12583,7 +14549,13 @@
       <c r="J328" t="n">
         <v>3671.2</v>
       </c>
-      <c r="K328" t="inlineStr">
+      <c r="K328" t="n">
+        <v>0.07123812384993806</v>
+      </c>
+      <c r="L328" t="n">
+        <v>0.2496184009684721</v>
+      </c>
+      <c r="M328" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12620,7 +14592,13 @@
       <c r="J329" t="n">
         <v>3688.8</v>
       </c>
-      <c r="K329" t="inlineStr">
+      <c r="K329" t="n">
+        <v>0.07766474339508044</v>
+      </c>
+      <c r="L329" t="n">
+        <v>0.3161017211012572</v>
+      </c>
+      <c r="M329" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12657,7 +14635,13 @@
       <c r="J330" t="n">
         <v>3520.5</v>
       </c>
-      <c r="K330" t="inlineStr">
+      <c r="K330" t="n">
+        <v>0.07463562555022987</v>
+      </c>
+      <c r="L330" t="n">
+        <v>0.3274678111587983</v>
+      </c>
+      <c r="M330" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12694,7 +14678,13 @@
       <c r="J331" t="n">
         <v>2392.285714285714</v>
       </c>
-      <c r="K331" t="inlineStr">
+      <c r="K331" t="n">
+        <v>0.1725736014972817</v>
+      </c>
+      <c r="L331" t="n">
+        <v>1.673484673887994</v>
+      </c>
+      <c r="M331" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12731,7 +14721,13 @@
       <c r="J332" t="n">
         <v>3538</v>
       </c>
-      <c r="K332" t="inlineStr">
+      <c r="K332" t="n">
+        <v>0.07632844169311506</v>
+      </c>
+      <c r="L332" t="n">
+        <v>1.126309932300846</v>
+      </c>
+      <c r="M332" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12768,7 +14764,13 @@
       <c r="J333" t="n">
         <v>3337.25</v>
       </c>
-      <c r="K333" t="inlineStr">
+      <c r="K333" t="n">
+        <v>0.07819072598604444</v>
+      </c>
+      <c r="L333" t="n">
+        <v>0.4782227064983807</v>
+      </c>
+      <c r="M333" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12805,7 +14807,13 @@
       <c r="J334" t="n">
         <v>3401.142857142857</v>
       </c>
-      <c r="K334" t="inlineStr">
+      <c r="K334" t="n">
+        <v>0.09488791365199861</v>
+      </c>
+      <c r="L334" t="n">
+        <v>0.475313409779573</v>
+      </c>
+      <c r="M334" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12842,7 +14850,13 @@
       <c r="J335" t="n">
         <v>2824.857142857143</v>
       </c>
-      <c r="K335" t="inlineStr">
+      <c r="K335" t="n">
+        <v>0.116310316625774</v>
+      </c>
+      <c r="L335" t="n">
+        <v>0.8611219237922232</v>
+      </c>
+      <c r="M335" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12879,7 +14893,13 @@
       <c r="J336" t="n">
         <v>3009.375</v>
       </c>
-      <c r="K336" t="inlineStr">
+      <c r="K336" t="n">
+        <v>0.0903132424829997</v>
+      </c>
+      <c r="L336" t="n">
+        <v>1.2852701127089</v>
+      </c>
+      <c r="M336" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12916,7 +14936,13 @@
       <c r="J337" t="n">
         <v>3246.571428571428</v>
       </c>
-      <c r="K337" t="inlineStr">
+      <c r="K337" t="n">
+        <v>0.08006848625239196</v>
+      </c>
+      <c r="L337" t="n">
+        <v>0.3606587125164451</v>
+      </c>
+      <c r="M337" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12953,7 +14979,13 @@
       <c r="J338" t="n">
         <v>3299.666666666667</v>
       </c>
-      <c r="K338" t="inlineStr">
+      <c r="K338" t="n">
+        <v>0.08222946073108946</v>
+      </c>
+      <c r="L338" t="n">
+        <v>0.5007272887556753</v>
+      </c>
+      <c r="M338" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12990,7 +15022,13 @@
       <c r="J339" t="n">
         <v>3638.571428571428</v>
       </c>
-      <c r="K339" t="inlineStr">
+      <c r="K339" t="n">
+        <v>0.1287769588512061</v>
+      </c>
+      <c r="L339" t="n">
+        <v>1.235518213130151</v>
+      </c>
+      <c r="M339" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13027,7 +15065,13 @@
       <c r="J340" t="n">
         <v>3854</v>
       </c>
-      <c r="K340" t="inlineStr">
+      <c r="K340" t="n">
+        <v>0.06409621506897765</v>
+      </c>
+      <c r="L340" t="n">
+        <v>0.2915996137753457</v>
+      </c>
+      <c r="M340" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13064,7 +15108,13 @@
       <c r="J341" t="n">
         <v>3202</v>
       </c>
-      <c r="K341" t="inlineStr">
+      <c r="K341" t="n">
+        <v>0.09245849169833963</v>
+      </c>
+      <c r="L341" t="n">
+        <v>0.5657282741738059</v>
+      </c>
+      <c r="M341" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13101,7 +15151,13 @@
       <c r="J342" t="n">
         <v>3250.166666666667</v>
       </c>
-      <c r="K342" t="inlineStr">
+      <c r="K342" t="n">
+        <v>0.09375424304141203</v>
+      </c>
+      <c r="L342" t="n">
+        <v>0.5367901426516887</v>
+      </c>
+      <c r="M342" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13138,7 +15194,13 @@
       <c r="J343" t="n">
         <v>3477.75</v>
       </c>
-      <c r="K343" t="inlineStr">
+      <c r="K343" t="n">
+        <v>0.09549494796019145</v>
+      </c>
+      <c r="L343" t="n">
+        <v>0.5094706692966575</v>
+      </c>
+      <c r="M343" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13175,7 +15237,13 @@
       <c r="J344" t="n">
         <v>2782</v>
       </c>
-      <c r="K344" t="inlineStr">
+      <c r="K344" t="n">
+        <v>0.1295930051004476</v>
+      </c>
+      <c r="L344" t="n">
+        <v>0.8624272651704074</v>
+      </c>
+      <c r="M344" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13212,7 +15280,13 @@
       <c r="J345" t="n">
         <v>3126.428571428572</v>
       </c>
-      <c r="K345" t="inlineStr">
+      <c r="K345" t="n">
+        <v>0.09845608706656546</v>
+      </c>
+      <c r="L345" t="n">
+        <v>0.6061917789244043</v>
+      </c>
+      <c r="M345" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13249,7 +15323,13 @@
       <c r="J346" t="n">
         <v>2869.2</v>
       </c>
-      <c r="K346" t="inlineStr">
+      <c r="K346" t="n">
+        <v>0.2024098270870824</v>
+      </c>
+      <c r="L346" t="n">
+        <v>1.331857495881384</v>
+      </c>
+      <c r="M346" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13286,7 +15366,13 @@
       <c r="J347" t="n">
         <v>3092.666666666667</v>
       </c>
-      <c r="K347" t="inlineStr">
+      <c r="K347" t="n">
+        <v>0.1585398347988276</v>
+      </c>
+      <c r="L347" t="n">
+        <v>0.7063362516693871</v>
+      </c>
+      <c r="M347" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13323,7 +15409,13 @@
       <c r="J348" t="n">
         <v>3248.5</v>
       </c>
-      <c r="K348" t="inlineStr">
+      <c r="K348" t="n">
+        <v>0.07607441953763602</v>
+      </c>
+      <c r="L348" t="n">
+        <v>0.5528425655976676</v>
+      </c>
+      <c r="M348" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13360,7 +15452,13 @@
       <c r="J349" t="n">
         <v>3173.142857142857</v>
       </c>
-      <c r="K349" t="inlineStr">
+      <c r="K349" t="n">
+        <v>0.1121266924092087</v>
+      </c>
+      <c r="L349" t="n">
+        <v>0.6266047527997811</v>
+      </c>
+      <c r="M349" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13397,7 +15495,13 @@
       <c r="J350" t="n">
         <v>2690</v>
       </c>
-      <c r="K350" t="inlineStr">
+      <c r="K350" t="n">
+        <v>0.1312897301878796</v>
+      </c>
+      <c r="L350" t="n">
+        <v>0.7730569603406974</v>
+      </c>
+      <c r="M350" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13434,7 +15538,13 @@
       <c r="J351" t="n">
         <v>2696.285714285714</v>
       </c>
-      <c r="K351" t="inlineStr">
+      <c r="K351" t="n">
+        <v>0.1467545822999214</v>
+      </c>
+      <c r="L351" t="n">
+        <v>0.8257880046293142</v>
+      </c>
+      <c r="M351" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13471,7 +15581,13 @@
       <c r="J352" t="n">
         <v>3787.4</v>
       </c>
-      <c r="K352" t="inlineStr">
+      <c r="K352" t="n">
+        <v>0.07851840514272598</v>
+      </c>
+      <c r="L352" t="n">
+        <v>0.405325326907123</v>
+      </c>
+      <c r="M352" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13508,7 +15624,13 @@
       <c r="J353" t="n">
         <v>2720.8</v>
       </c>
-      <c r="K353" t="inlineStr">
+      <c r="K353" t="n">
+        <v>0.1629203216374269</v>
+      </c>
+      <c r="L353" t="n">
+        <v>1.043239131706746</v>
+      </c>
+      <c r="M353" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13545,7 +15667,13 @@
       <c r="J354" t="n">
         <v>3120.8</v>
       </c>
-      <c r="K354" t="inlineStr">
+      <c r="K354" t="n">
+        <v>0.1235406333460512</v>
+      </c>
+      <c r="L354" t="n">
+        <v>0.7651228733459362</v>
+      </c>
+      <c r="M354" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13582,7 +15710,13 @@
       <c r="J355" t="n">
         <v>3252.8</v>
       </c>
-      <c r="K355" t="inlineStr">
+      <c r="K355" t="n">
+        <v>0.03841200763799458</v>
+      </c>
+      <c r="L355" t="n">
+        <v>0.3838303159389418</v>
+      </c>
+      <c r="M355" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13619,7 +15753,13 @@
       <c r="J356" t="n">
         <v>3399.285714285714</v>
       </c>
-      <c r="K356" t="inlineStr">
+      <c r="K356" t="n">
+        <v>0.03314338876613555</v>
+      </c>
+      <c r="L356" t="n">
+        <v>0.3197576573544254</v>
+      </c>
+      <c r="M356" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13656,7 +15796,13 @@
       <c r="J357" t="n">
         <v>2816.875</v>
       </c>
-      <c r="K357" t="inlineStr">
+      <c r="K357" t="n">
+        <v>0.07660690624915498</v>
+      </c>
+      <c r="L357" t="n">
+        <v>0.7545410962552602</v>
+      </c>
+      <c r="M357" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13693,7 +15839,13 @@
       <c r="J358" t="n">
         <v>3362.4</v>
       </c>
-      <c r="K358" t="inlineStr">
+      <c r="K358" t="n">
+        <v>0.03919017806325711</v>
+      </c>
+      <c r="L358" t="n">
+        <v>0.9357406328868128</v>
+      </c>
+      <c r="M358" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13730,7 +15882,13 @@
       <c r="J359" t="n">
         <v>2264.8</v>
       </c>
-      <c r="K359" t="inlineStr">
+      <c r="K359" t="n">
+        <v>0.2187286085885091</v>
+      </c>
+      <c r="L359" t="n">
+        <v>1.767200058992699</v>
+      </c>
+      <c r="M359" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13767,7 +15925,13 @@
       <c r="J360" t="n">
         <v>3286.375</v>
       </c>
-      <c r="K360" t="inlineStr">
+      <c r="K360" t="n">
+        <v>0.08891577196431272</v>
+      </c>
+      <c r="L360" t="n">
+        <v>0.5749299263411772</v>
+      </c>
+      <c r="M360" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13804,7 +15968,13 @@
       <c r="J361" t="n">
         <v>2703.8</v>
       </c>
-      <c r="K361" t="inlineStr">
+      <c r="K361" t="n">
+        <v>0.1195628222643339</v>
+      </c>
+      <c r="L361" t="n">
+        <v>0.664234648908041</v>
+      </c>
+      <c r="M361" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13841,7 +16011,13 @@
       <c r="J362" t="n">
         <v>2511.333333333333</v>
       </c>
-      <c r="K362" t="inlineStr">
+      <c r="K362" t="n">
+        <v>0.1584548679542767</v>
+      </c>
+      <c r="L362" t="n">
+        <v>1.602615212884708</v>
+      </c>
+      <c r="M362" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13878,7 +16054,13 @@
       <c r="J363" t="n">
         <v>2592.875</v>
       </c>
-      <c r="K363" t="inlineStr">
+      <c r="K363" t="n">
+        <v>0.2041395780814648</v>
+      </c>
+      <c r="L363" t="n">
+        <v>1.482216484913876</v>
+      </c>
+      <c r="M363" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13915,7 +16097,13 @@
       <c r="J364" t="n">
         <v>2814.428571428572</v>
       </c>
-      <c r="K364" t="inlineStr">
+      <c r="K364" t="n">
+        <v>0.1277609096862535</v>
+      </c>
+      <c r="L364" t="n">
+        <v>0.6323481745587411</v>
+      </c>
+      <c r="M364" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13952,7 +16140,13 @@
       <c r="J365" t="n">
         <v>2962.5</v>
       </c>
-      <c r="K365" t="inlineStr">
+      <c r="K365" t="n">
+        <v>0.1262838229774456</v>
+      </c>
+      <c r="L365" t="n">
+        <v>0.6117153151961917</v>
+      </c>
+      <c r="M365" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13989,7 +16183,13 @@
       <c r="J366" t="n">
         <v>3276.166666666667</v>
       </c>
-      <c r="K366" t="inlineStr">
+      <c r="K366" t="n">
+        <v>0.08921473663114997</v>
+      </c>
+      <c r="L366" t="n">
+        <v>0.4233634490410523</v>
+      </c>
+      <c r="M366" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14026,7 +16226,13 @@
       <c r="J367" t="n">
         <v>3235.166666666667</v>
       </c>
-      <c r="K367" t="inlineStr">
+      <c r="K367" t="n">
+        <v>0.0812267328487857</v>
+      </c>
+      <c r="L367" t="n">
+        <v>0.4016198022579062</v>
+      </c>
+      <c r="M367" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14063,7 +16269,13 @@
       <c r="J368" t="n">
         <v>2869.142857142857</v>
       </c>
-      <c r="K368" t="inlineStr">
+      <c r="K368" t="n">
+        <v>0.1042038216560509</v>
+      </c>
+      <c r="L368" t="n">
+        <v>0.7182053645901924</v>
+      </c>
+      <c r="M368" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14100,7 +16312,13 @@
       <c r="J369" t="n">
         <v>2284.333333333333</v>
       </c>
-      <c r="K369" t="inlineStr">
+      <c r="K369" t="n">
+        <v>0.07732027598486535</v>
+      </c>
+      <c r="L369" t="n">
+        <v>0.6824074801602887</v>
+      </c>
+      <c r="M369" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14137,7 +16355,13 @@
       <c r="J370" t="n">
         <v>4165.833333333333</v>
       </c>
-      <c r="K370" t="inlineStr">
+      <c r="K370" t="n">
+        <v>0.07267741840375035</v>
+      </c>
+      <c r="L370" t="n">
+        <v>0.3286579024559347</v>
+      </c>
+      <c r="M370" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14174,7 +16398,13 @@
       <c r="J371" t="n">
         <v>3324</v>
       </c>
-      <c r="K371" t="inlineStr">
+      <c r="K371" t="n">
+        <v>0.07018867924528305</v>
+      </c>
+      <c r="L371" t="n">
+        <v>0.5171307583728987</v>
+      </c>
+      <c r="M371" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14211,7 +16441,13 @@
       <c r="J372" t="n">
         <v>3580.545454545455</v>
       </c>
-      <c r="K372" t="inlineStr">
+      <c r="K372" t="n">
+        <v>0.07553919713804139</v>
+      </c>
+      <c r="L372" t="n">
+        <v>0.438139701921351</v>
+      </c>
+      <c r="M372" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14248,7 +16484,13 @@
       <c r="J373" t="n">
         <v>3092</v>
       </c>
-      <c r="K373" t="inlineStr">
+      <c r="K373" t="n">
+        <v>0.1157534817780002</v>
+      </c>
+      <c r="L373" t="n">
+        <v>0.7889053086279427</v>
+      </c>
+      <c r="M373" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14285,7 +16527,13 @@
       <c r="J374" t="n">
         <v>2980.2</v>
       </c>
-      <c r="K374" t="inlineStr">
+      <c r="K374" t="n">
+        <v>0.1046244943913932</v>
+      </c>
+      <c r="L374" t="n">
+        <v>0.7352596413081709</v>
+      </c>
+      <c r="M374" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14322,7 +16570,13 @@
       <c r="J375" t="n">
         <v>3194.5</v>
       </c>
-      <c r="K375" t="inlineStr">
+      <c r="K375" t="n">
+        <v>0.09605732504182578</v>
+      </c>
+      <c r="L375" t="n">
+        <v>0.6803040465012294</v>
+      </c>
+      <c r="M375" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14359,7 +16613,13 @@
       <c r="J376" t="n">
         <v>3845.6</v>
       </c>
-      <c r="K376" t="inlineStr">
+      <c r="K376" t="n">
+        <v>0.06085430076067879</v>
+      </c>
+      <c r="L376" t="n">
+        <v>0.3083994365779527</v>
+      </c>
+      <c r="M376" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14396,7 +16656,13 @@
       <c r="J377" t="n">
         <v>4557.2</v>
       </c>
-      <c r="K377" t="inlineStr">
+      <c r="K377" t="n">
+        <v>0.04201843765162545</v>
+      </c>
+      <c r="L377" t="n">
+        <v>0.2503372518789749</v>
+      </c>
+      <c r="M377" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14433,7 +16699,13 @@
       <c r="J378" t="n">
         <v>3170.125</v>
       </c>
-      <c r="K378" t="inlineStr">
+      <c r="K378" t="n">
+        <v>0.1004191540708751</v>
+      </c>
+      <c r="L378" t="n">
+        <v>0.4444469429515864</v>
+      </c>
+      <c r="M378" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14470,7 +16742,13 @@
       <c r="J379" t="n">
         <v>3930.428571428572</v>
       </c>
-      <c r="K379" t="inlineStr">
+      <c r="K379" t="n">
+        <v>0.08579913034256026</v>
+      </c>
+      <c r="L379" t="n">
+        <v>0.4265078026149307</v>
+      </c>
+      <c r="M379" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14507,7 +16785,13 @@
       <c r="J380" t="n">
         <v>3348.142857142857</v>
       </c>
-      <c r="K380" t="inlineStr">
+      <c r="K380" t="n">
+        <v>0.1003933641183513</v>
+      </c>
+      <c r="L380" t="n">
+        <v>0.427447934365746</v>
+      </c>
+      <c r="M380" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14544,7 +16828,13 @@
       <c r="J381" t="n">
         <v>3303.125</v>
       </c>
-      <c r="K381" t="inlineStr">
+      <c r="K381" t="n">
+        <v>0.09892203559789421</v>
+      </c>
+      <c r="L381" t="n">
+        <v>0.8869010159129731</v>
+      </c>
+      <c r="M381" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14581,7 +16871,13 @@
       <c r="J382" t="n">
         <v>3600.2</v>
       </c>
-      <c r="K382" t="inlineStr">
+      <c r="K382" t="n">
+        <v>0.08667065152420801</v>
+      </c>
+      <c r="L382" t="n">
+        <v>0.4290787137502466</v>
+      </c>
+      <c r="M382" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14618,7 +16914,13 @@
       <c r="J383" t="n">
         <v>2882.666666666667</v>
       </c>
-      <c r="K383" t="inlineStr">
+      <c r="K383" t="n">
+        <v>0.1331976941336047</v>
+      </c>
+      <c r="L383" t="n">
+        <v>1.218589067444313</v>
+      </c>
+      <c r="M383" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14655,7 +16957,13 @@
       <c r="J384" t="n">
         <v>3221.4</v>
       </c>
-      <c r="K384" t="inlineStr">
+      <c r="K384" t="n">
+        <v>0.08951655387607889</v>
+      </c>
+      <c r="L384" t="n">
+        <v>0.43434661213575</v>
+      </c>
+      <c r="M384" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14692,7 +17000,13 @@
       <c r="J385" t="n">
         <v>3683.25</v>
       </c>
-      <c r="K385" t="inlineStr">
+      <c r="K385" t="n">
+        <v>0.08702505587577931</v>
+      </c>
+      <c r="L385" t="n">
+        <v>0.5263083008451667</v>
+      </c>
+      <c r="M385" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14729,7 +17043,13 @@
       <c r="J386" t="n">
         <v>2946.833333333333</v>
       </c>
-      <c r="K386" t="inlineStr">
+      <c r="K386" t="n">
+        <v>0.1080816449499134</v>
+      </c>
+      <c r="L386" t="n">
+        <v>0.5196451204055765</v>
+      </c>
+      <c r="M386" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14766,7 +17086,13 @@
       <c r="J387" t="n">
         <v>3477.5</v>
       </c>
-      <c r="K387" t="inlineStr">
+      <c r="K387" t="n">
+        <v>0.08876513317191283</v>
+      </c>
+      <c r="L387" t="n">
+        <v>0.3607486567869162</v>
+      </c>
+      <c r="M387" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14803,7 +17129,13 @@
       <c r="J388" t="n">
         <v>2731.4</v>
       </c>
-      <c r="K388" t="inlineStr">
+      <c r="K388" t="n">
+        <v>0.1121478229052323</v>
+      </c>
+      <c r="L388" t="n">
+        <v>0.5432470755051395</v>
+      </c>
+      <c r="M388" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14840,7 +17172,13 @@
       <c r="J389" t="n">
         <v>2754</v>
       </c>
-      <c r="K389" t="inlineStr">
+      <c r="K389" t="n">
+        <v>0.1232146756933828</v>
+      </c>
+      <c r="L389" t="n">
+        <v>0.8451168364289982</v>
+      </c>
+      <c r="M389" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14877,7 +17215,13 @@
       <c r="J390" t="n">
         <v>2677.857142857143</v>
       </c>
-      <c r="K390" t="inlineStr">
+      <c r="K390" t="n">
+        <v>0.08023457720407567</v>
+      </c>
+      <c r="L390" t="n">
+        <v>0.5177589852008456</v>
+      </c>
+      <c r="M390" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14914,7 +17258,13 @@
       <c r="J391" t="n">
         <v>2625.666666666667</v>
       </c>
-      <c r="K391" t="inlineStr">
+      <c r="K391" t="n">
+        <v>0.1492425938362809</v>
+      </c>
+      <c r="L391" t="n">
+        <v>0.9409108016560028</v>
+      </c>
+      <c r="M391" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14951,7 +17301,13 @@
       <c r="J392" t="n">
         <v>2784.166666666667</v>
       </c>
-      <c r="K392" t="inlineStr">
+      <c r="K392" t="n">
+        <v>0.1045891141942369</v>
+      </c>
+      <c r="L392" t="n">
+        <v>0.5227861606462428</v>
+      </c>
+      <c r="M392" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14988,7 +17344,13 @@
       <c r="J393" t="n">
         <v>3321.625</v>
       </c>
-      <c r="K393" t="inlineStr">
+      <c r="K393" t="n">
+        <v>0.08149044277764336</v>
+      </c>
+      <c r="L393" t="n">
+        <v>0.4527368534250995</v>
+      </c>
+      <c r="M393" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -15025,7 +17387,13 @@
       <c r="J394" t="n">
         <v>3421.6</v>
       </c>
-      <c r="K394" t="inlineStr">
+      <c r="K394" t="n">
+        <v>0.1100447627573859</v>
+      </c>
+      <c r="L394" t="n">
+        <v>0.3551779935275083</v>
+      </c>
+      <c r="M394" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -15062,7 +17430,13 @@
       <c r="J395" t="n">
         <v>2806.333333333333</v>
       </c>
-      <c r="K395" t="inlineStr">
+      <c r="K395" t="n">
+        <v>0.09175804740007079</v>
+      </c>
+      <c r="L395" t="n">
+        <v>0.8648396345935857</v>
+      </c>
+      <c r="M395" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -15099,7 +17473,13 @@
       <c r="J396" t="n">
         <v>3506.666666666667</v>
       </c>
-      <c r="K396" t="inlineStr">
+      <c r="K396" t="n">
+        <v>0.09983827849103927</v>
+      </c>
+      <c r="L396" t="n">
+        <v>0.566797826494285</v>
+      </c>
+      <c r="M396" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -15136,7 +17516,13 @@
       <c r="J397" t="n">
         <v>3465.4</v>
       </c>
-      <c r="K397" t="inlineStr">
+      <c r="K397" t="n">
+        <v>0.06604720312209619</v>
+      </c>
+      <c r="L397" t="n">
+        <v>0.6221988795518201</v>
+      </c>
+      <c r="M397" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -15173,7 +17559,13 @@
       <c r="J398" t="n">
         <v>3002</v>
       </c>
-      <c r="K398" t="inlineStr">
+      <c r="K398" t="n">
+        <v>0.1245144142302188</v>
+      </c>
+      <c r="L398" t="n">
+        <v>0.7178217821782178</v>
+      </c>
+      <c r="M398" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -15210,7 +17602,13 @@
       <c r="J399" t="n">
         <v>1493.2</v>
       </c>
-      <c r="K399" t="inlineStr">
+      <c r="K399" t="n">
+        <v>0.3755992564328343</v>
+      </c>
+      <c r="L399" t="n">
+        <v>4.757714710620887</v>
+      </c>
+      <c r="M399" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15247,7 +17645,13 @@
       <c r="J400" t="n">
         <v>1940.4</v>
       </c>
-      <c r="K400" t="inlineStr">
+      <c r="K400" t="n">
+        <v>0.4701807013784731</v>
+      </c>
+      <c r="L400" t="n">
+        <v>3.382141389231406</v>
+      </c>
+      <c r="M400" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15284,7 +17688,13 @@
       <c r="J401" t="n">
         <v>1784.6</v>
       </c>
-      <c r="K401" t="inlineStr">
+      <c r="K401" t="n">
+        <v>0.3575704225352113</v>
+      </c>
+      <c r="L401" t="n">
+        <v>3.069134869663775</v>
+      </c>
+      <c r="M401" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15321,7 +17731,13 @@
       <c r="J402" t="n">
         <v>2158.6</v>
       </c>
-      <c r="K402" t="inlineStr">
+      <c r="K402" t="n">
+        <v>0.2896685837229509</v>
+      </c>
+      <c r="L402" t="n">
+        <v>2.688969119680444</v>
+      </c>
+      <c r="M402" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15358,7 +17774,13 @@
       <c r="J403" t="n">
         <v>1943.285714285714</v>
       </c>
-      <c r="K403" t="inlineStr">
+      <c r="K403" t="n">
+        <v>0.1262657069659631</v>
+      </c>
+      <c r="L403" t="n">
+        <v>-5.805908750934927</v>
+      </c>
+      <c r="M403" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15395,7 +17817,13 @@
       <c r="J404" t="n">
         <v>1577</v>
       </c>
-      <c r="K404" t="inlineStr">
+      <c r="K404" t="n">
+        <v>0.4154548267326733</v>
+      </c>
+      <c r="L404" t="n">
+        <v>3.615861047529284</v>
+      </c>
+      <c r="M404" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15432,7 +17860,13 @@
       <c r="J405" t="n">
         <v>2895.125</v>
       </c>
-      <c r="K405" t="inlineStr">
+      <c r="K405" t="n">
+        <v>0.2024804800281188</v>
+      </c>
+      <c r="L405" t="n">
+        <v>1.225572136279367</v>
+      </c>
+      <c r="M405" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15469,7 +17903,13 @@
       <c r="J406" t="n">
         <v>1928.166666666667</v>
       </c>
-      <c r="K406" t="inlineStr">
+      <c r="K406" t="n">
+        <v>0.4006417678388303</v>
+      </c>
+      <c r="L406" t="n">
+        <v>6.037387836490525</v>
+      </c>
+      <c r="M406" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15506,7 +17946,13 @@
       <c r="J407" t="n">
         <v>1855.2</v>
       </c>
-      <c r="K407" t="inlineStr">
+      <c r="K407" t="n">
+        <v>0.3301379681060742</v>
+      </c>
+      <c r="L407" t="n">
+        <v>4.034818789006893</v>
+      </c>
+      <c r="M407" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15543,7 +17989,13 @@
       <c r="J408" t="n">
         <v>1864.909090909091</v>
       </c>
-      <c r="K408" t="inlineStr">
+      <c r="K408" t="n">
+        <v>0.2747409376324204</v>
+      </c>
+      <c r="L408" t="n">
+        <v>2.630957650877967</v>
+      </c>
+      <c r="M408" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15580,7 +18032,13 @@
       <c r="J409" t="n">
         <v>1924.923076923077</v>
       </c>
-      <c r="K409" t="inlineStr">
+      <c r="K409" t="n">
+        <v>0.422319090736217</v>
+      </c>
+      <c r="L409" t="n">
+        <v>4.809909369585504</v>
+      </c>
+      <c r="M409" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15617,7 +18075,13 @@
       <c r="J410" t="n">
         <v>2009.8</v>
       </c>
-      <c r="K410" t="inlineStr">
+      <c r="K410" t="n">
+        <v>0.6262838336265109</v>
+      </c>
+      <c r="L410" t="n">
+        <v>2.775765806548966</v>
+      </c>
+      <c r="M410" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15654,7 +18118,13 @@
       <c r="J411" t="n">
         <v>1631.5</v>
       </c>
-      <c r="K411" t="inlineStr">
+      <c r="K411" t="n">
+        <v>0.3978080079308256</v>
+      </c>
+      <c r="L411" t="n">
+        <v>4.193567115652578</v>
+      </c>
+      <c r="M411" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15691,7 +18161,13 @@
       <c r="J412" t="n">
         <v>1717.7</v>
       </c>
-      <c r="K412" t="inlineStr">
+      <c r="K412" t="n">
+        <v>0.5237094303323951</v>
+      </c>
+      <c r="L412" t="n">
+        <v>3.932479066905648</v>
+      </c>
+      <c r="M412" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15728,7 +18204,13 @@
       <c r="J413" t="n">
         <v>1894.666666666667</v>
       </c>
-      <c r="K413" t="inlineStr">
+      <c r="K413" t="n">
+        <v>0.5284312112737841</v>
+      </c>
+      <c r="L413" t="n">
+        <v>3.643478260869564</v>
+      </c>
+      <c r="M413" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15765,7 +18247,13 @@
       <c r="J414" t="n">
         <v>2470.272727272727</v>
       </c>
-      <c r="K414" t="inlineStr">
+      <c r="K414" t="n">
+        <v>0.1688067111795925</v>
+      </c>
+      <c r="L414" t="n">
+        <v>7.437299641712253</v>
+      </c>
+      <c r="M414" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15802,7 +18290,13 @@
       <c r="J415" t="n">
         <v>2407.166666666667</v>
       </c>
-      <c r="K415" t="inlineStr">
+      <c r="K415" t="n">
+        <v>0.589481839310942</v>
+      </c>
+      <c r="L415" t="n">
+        <v>2.858626709982541</v>
+      </c>
+      <c r="M415" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15839,7 +18333,13 @@
       <c r="J416" t="n">
         <v>1871.6</v>
       </c>
-      <c r="K416" t="inlineStr">
+      <c r="K416" t="n">
+        <v>0.5670208680066572</v>
+      </c>
+      <c r="L416" t="n">
+        <v>3.088778854871331</v>
+      </c>
+      <c r="M416" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15876,7 +18376,13 @@
       <c r="J417" t="n">
         <v>1872.166666666667</v>
       </c>
-      <c r="K417" t="inlineStr">
+      <c r="K417" t="n">
+        <v>0.444333193372307</v>
+      </c>
+      <c r="L417" t="n">
+        <v>3.637685758104606</v>
+      </c>
+      <c r="M417" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15913,7 +18419,13 @@
       <c r="J418" t="n">
         <v>2245.857142857143</v>
       </c>
-      <c r="K418" t="inlineStr">
+      <c r="K418" t="n">
+        <v>0.4032987427137517</v>
+      </c>
+      <c r="L418" t="n">
+        <v>2.625051041241321</v>
+      </c>
+      <c r="M418" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15950,7 +18462,13 @@
       <c r="J419" t="n">
         <v>1791.833333333333</v>
       </c>
-      <c r="K419" t="inlineStr">
+      <c r="K419" t="n">
+        <v>0.3014898493778651</v>
+      </c>
+      <c r="L419" t="n">
+        <v>3.234674161250657</v>
+      </c>
+      <c r="M419" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15987,7 +18505,13 @@
       <c r="J420" t="n">
         <v>1591.166666666667</v>
       </c>
-      <c r="K420" t="inlineStr">
+      <c r="K420" t="n">
+        <v>0.4760237892948173</v>
+      </c>
+      <c r="L420" t="n">
+        <v>3.918699641897939</v>
+      </c>
+      <c r="M420" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16024,7 +18548,13 @@
       <c r="J421" t="n">
         <v>2477.4</v>
       </c>
-      <c r="K421" t="inlineStr">
+      <c r="K421" t="n">
+        <v>0.468535562132102</v>
+      </c>
+      <c r="L421" t="n">
+        <v>2.05503095312812</v>
+      </c>
+      <c r="M421" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16061,7 +18591,13 @@
       <c r="J422" t="n">
         <v>2826</v>
       </c>
-      <c r="K422" t="inlineStr">
+      <c r="K422" t="n">
+        <v>0.2128037937166568</v>
+      </c>
+      <c r="L422" t="n">
+        <v>1.675221651889874</v>
+      </c>
+      <c r="M422" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16098,7 +18634,13 @@
       <c r="J423" t="n">
         <v>2389.857142857143</v>
       </c>
-      <c r="K423" t="inlineStr">
+      <c r="K423" t="n">
+        <v>0.5073478831842912</v>
+      </c>
+      <c r="L423" t="n">
+        <v>3.234418604651163</v>
+      </c>
+      <c r="M423" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16135,7 +18677,13 @@
       <c r="J424" t="n">
         <v>2086.666666666667</v>
       </c>
-      <c r="K424" t="inlineStr">
+      <c r="K424" t="n">
+        <v>0.5401748886322389</v>
+      </c>
+      <c r="L424" t="n">
+        <v>2.751722978651874</v>
+      </c>
+      <c r="M424" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16172,7 +18720,13 @@
       <c r="J425" t="n">
         <v>2144.8</v>
       </c>
-      <c r="K425" t="inlineStr">
+      <c r="K425" t="n">
+        <v>0.2811254980079682</v>
+      </c>
+      <c r="L425" t="n">
+        <v>1.642819032836979</v>
+      </c>
+      <c r="M425" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16209,7 +18763,13 @@
       <c r="J426" t="n">
         <v>1650.833333333333</v>
       </c>
-      <c r="K426" t="inlineStr">
+      <c r="K426" t="n">
+        <v>0.480548501777552</v>
+      </c>
+      <c r="L426" t="n">
+        <v>3.665168887511621</v>
+      </c>
+      <c r="M426" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16246,7 +18806,13 @@
       <c r="J427" t="n">
         <v>2981.6</v>
       </c>
-      <c r="K427" t="inlineStr">
+      <c r="K427" t="n">
+        <v>0.23048</v>
+      </c>
+      <c r="L427" t="n">
+        <v>1.11171136407486</v>
+      </c>
+      <c r="M427" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16283,7 +18849,13 @@
       <c r="J428" t="n">
         <v>1839.857142857143</v>
       </c>
-      <c r="K428" t="inlineStr">
+      <c r="K428" t="n">
+        <v>0.1400436735198385</v>
+      </c>
+      <c r="L428" t="n">
+        <v>-3.636071887034636</v>
+      </c>
+      <c r="M428" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16320,7 +18892,13 @@
       <c r="J429" t="n">
         <v>2456.5</v>
       </c>
-      <c r="K429" t="inlineStr">
+      <c r="K429" t="n">
+        <v>0.6179572935425778</v>
+      </c>
+      <c r="L429" t="n">
+        <v>3.229579831932773</v>
+      </c>
+      <c r="M429" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16357,7 +18935,13 @@
       <c r="J430" t="n">
         <v>1749.2</v>
       </c>
-      <c r="K430" t="inlineStr">
+      <c r="K430" t="n">
+        <v>0.4788621098380087</v>
+      </c>
+      <c r="L430" t="n">
+        <v>3.540753724802804</v>
+      </c>
+      <c r="M430" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16394,7 +18978,13 @@
       <c r="J431" t="n">
         <v>1735.333333333333</v>
       </c>
-      <c r="K431" t="inlineStr">
+      <c r="K431" t="n">
+        <v>0.4454643972716261</v>
+      </c>
+      <c r="L431" t="n">
+        <v>4.385315343583308</v>
+      </c>
+      <c r="M431" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16431,7 +19021,13 @@
       <c r="J432" t="n">
         <v>1550.142857142857</v>
       </c>
-      <c r="K432" t="inlineStr">
+      <c r="K432" t="n">
+        <v>0.4978631192439655</v>
+      </c>
+      <c r="L432" t="n">
+        <v>3.29508784510577</v>
+      </c>
+      <c r="M432" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16468,7 +19064,13 @@
       <c r="J433" t="n">
         <v>2755.923076923077</v>
       </c>
-      <c r="K433" t="inlineStr">
+      <c r="K433" t="n">
+        <v>0.4563499574145926</v>
+      </c>
+      <c r="L433" t="n">
+        <v>1.93970415212735</v>
+      </c>
+      <c r="M433" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16505,7 +19107,13 @@
       <c r="J434" t="n">
         <v>1677</v>
       </c>
-      <c r="K434" t="inlineStr">
+      <c r="K434" t="n">
+        <v>0.4792712326601589</v>
+      </c>
+      <c r="L434" t="n">
+        <v>3.755419298897563</v>
+      </c>
+      <c r="M434" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16542,7 +19150,13 @@
       <c r="J435" t="n">
         <v>1946.142857142857</v>
       </c>
-      <c r="K435" t="inlineStr">
+      <c r="K435" t="n">
+        <v>0.4881425363373887</v>
+      </c>
+      <c r="L435" t="n">
+        <v>3.550709028899653</v>
+      </c>
+      <c r="M435" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16579,7 +19193,13 @@
       <c r="J436" t="n">
         <v>1811.111111111111</v>
       </c>
-      <c r="K436" t="inlineStr">
+      <c r="K436" t="n">
+        <v>0.5128016960208741</v>
+      </c>
+      <c r="L436" t="n">
+        <v>3.083220982963598</v>
+      </c>
+      <c r="M436" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16616,7 +19236,13 @@
       <c r="J437" t="n">
         <v>1704.285714285714</v>
       </c>
-      <c r="K437" t="inlineStr">
+      <c r="K437" t="n">
+        <v>0.4743448392841998</v>
+      </c>
+      <c r="L437" t="n">
+        <v>3.921243281140457</v>
+      </c>
+      <c r="M437" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16653,7 +19279,13 @@
       <c r="J438" t="n">
         <v>1812.111111111111</v>
       </c>
-      <c r="K438" t="inlineStr">
+      <c r="K438" t="n">
+        <v>0.4260388535586724</v>
+      </c>
+      <c r="L438" t="n">
+        <v>3.291603567221944</v>
+      </c>
+      <c r="M438" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16690,7 +19322,13 @@
       <c r="J439" t="n">
         <v>1706</v>
       </c>
-      <c r="K439" t="inlineStr">
+      <c r="K439" t="n">
+        <v>0.5134306569343067</v>
+      </c>
+      <c r="L439" t="n">
+        <v>4.011405759908754</v>
+      </c>
+      <c r="M439" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16727,7 +19365,13 @@
       <c r="J440" t="n">
         <v>1984.857142857143</v>
       </c>
-      <c r="K440" t="inlineStr">
+      <c r="K440" t="n">
+        <v>0.0571693858601937</v>
+      </c>
+      <c r="L440" t="n">
+        <v>0.178964414732384</v>
+      </c>
+      <c r="M440" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16764,7 +19408,13 @@
       <c r="J441" t="n">
         <v>2204.9</v>
       </c>
-      <c r="K441" t="inlineStr">
+      <c r="K441" t="n">
+        <v>0.1160922163889523</v>
+      </c>
+      <c r="L441" t="n">
+        <v>-3.772997032640951</v>
+      </c>
+      <c r="M441" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16801,7 +19451,13 @@
       <c r="J442" t="n">
         <v>2477</v>
       </c>
-      <c r="K442" t="inlineStr">
+      <c r="K442" t="n">
+        <v>0.07145461173897193</v>
+      </c>
+      <c r="L442" t="n">
+        <v>1.384425216316441</v>
+      </c>
+      <c r="M442" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16838,7 +19494,13 @@
       <c r="J443" t="n">
         <v>1658.166666666667</v>
       </c>
-      <c r="K443" t="inlineStr">
+      <c r="K443" t="n">
+        <v>0.5170784651727001</v>
+      </c>
+      <c r="L443" t="n">
+        <v>3.780339805825242</v>
+      </c>
+      <c r="M443" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16875,7 +19537,13 @@
       <c r="J444" t="n">
         <v>2003.571428571429</v>
       </c>
-      <c r="K444" t="inlineStr">
+      <c r="K444" t="n">
+        <v>0.5276704146170064</v>
+      </c>
+      <c r="L444" t="n">
+        <v>3.981309650053021</v>
+      </c>
+      <c r="M444" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16912,7 +19580,13 @@
       <c r="J445" t="n">
         <v>2368</v>
       </c>
-      <c r="K445" t="inlineStr">
+      <c r="K445" t="n">
+        <v>0.4101234387553868</v>
+      </c>
+      <c r="L445" t="n">
+        <v>1.922023687273224</v>
+      </c>
+      <c r="M445" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16949,7 +19623,13 @@
       <c r="J446" t="n">
         <v>1616</v>
       </c>
-      <c r="K446" t="inlineStr">
+      <c r="K446" t="n">
+        <v>0.4581806641470241</v>
+      </c>
+      <c r="L446" t="n">
+        <v>5.564081003433547</v>
+      </c>
+      <c r="M446" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16986,7 +19666,13 @@
       <c r="J447" t="n">
         <v>1836.333333333333</v>
       </c>
-      <c r="K447" t="inlineStr">
+      <c r="K447" t="n">
+        <v>0.5448059445217444</v>
+      </c>
+      <c r="L447" t="n">
+        <v>2.773206751054853</v>
+      </c>
+      <c r="M447" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17023,7 +19709,13 @@
       <c r="J448" t="n">
         <v>2090.5</v>
       </c>
-      <c r="K448" t="inlineStr">
+      <c r="K448" t="n">
+        <v>0.4436455150098867</v>
+      </c>
+      <c r="L448" t="n">
+        <v>3.241610297497866</v>
+      </c>
+      <c r="M448" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17060,7 +19752,13 @@
       <c r="J449" t="n">
         <v>2038.2</v>
       </c>
-      <c r="K449" t="inlineStr">
+      <c r="K449" t="n">
+        <v>0.489934217050676</v>
+      </c>
+      <c r="L449" t="n">
+        <v>3.688283894087197</v>
+      </c>
+      <c r="M449" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17097,7 +19795,13 @@
       <c r="J450" t="n">
         <v>2197.714285714286</v>
       </c>
-      <c r="K450" t="inlineStr">
+      <c r="K450" t="n">
+        <v>0.5879086743806787</v>
+      </c>
+      <c r="L450" t="n">
+        <v>3.343491222259027</v>
+      </c>
+      <c r="M450" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17134,7 +19838,13 @@
       <c r="J451" t="n">
         <v>2126.5</v>
       </c>
-      <c r="K451" t="inlineStr">
+      <c r="K451" t="n">
+        <v>0.1676497367483472</v>
+      </c>
+      <c r="L451" t="n">
+        <v>9.373616644532978</v>
+      </c>
+      <c r="M451" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17171,7 +19881,13 @@
       <c r="J452" t="n">
         <v>1637</v>
       </c>
-      <c r="K452" t="inlineStr">
+      <c r="K452" t="n">
+        <v>0.1655919067621132</v>
+      </c>
+      <c r="L452" t="n">
+        <v>14.66981132075472</v>
+      </c>
+      <c r="M452" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17208,7 +19924,13 @@
       <c r="J453" t="n">
         <v>1928.857142857143</v>
       </c>
-      <c r="K453" t="inlineStr">
+      <c r="K453" t="n">
+        <v>0.3666584127770211</v>
+      </c>
+      <c r="L453" t="n">
+        <v>3.076883116883117</v>
+      </c>
+      <c r="M453" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17245,7 +19967,13 @@
       <c r="J454" t="n">
         <v>2529</v>
       </c>
-      <c r="K454" t="inlineStr">
+      <c r="K454" t="n">
+        <v>0.429732915972194</v>
+      </c>
+      <c r="L454" t="n">
+        <v>2.222572642025146</v>
+      </c>
+      <c r="M454" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17282,7 +20010,13 @@
       <c r="J455" t="n">
         <v>2007.833333333333</v>
       </c>
-      <c r="K455" t="inlineStr">
+      <c r="K455" t="n">
+        <v>0.5103685564613621</v>
+      </c>
+      <c r="L455" t="n">
+        <v>2.571129641775197</v>
+      </c>
+      <c r="M455" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17319,7 +20053,13 @@
       <c r="J456" t="n">
         <v>2272.4</v>
       </c>
-      <c r="K456" t="inlineStr">
+      <c r="K456" t="n">
+        <v>0.3606012538711383</v>
+      </c>
+      <c r="L456" t="n">
+        <v>2.035734083834378</v>
+      </c>
+      <c r="M456" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17356,7 +20096,13 @@
       <c r="J457" t="n">
         <v>1873.375</v>
       </c>
-      <c r="K457" t="inlineStr">
+      <c r="K457" t="n">
+        <v>0.5625210650488709</v>
+      </c>
+      <c r="L457" t="n">
+        <v>2.852686678773635</v>
+      </c>
+      <c r="M457" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17393,7 +20139,13 @@
       <c r="J458" t="n">
         <v>1366</v>
       </c>
-      <c r="K458" t="inlineStr">
+      <c r="K458" t="n">
+        <v>0.1119828378792523</v>
+      </c>
+      <c r="L458" t="n">
+        <v>6.130872483221478</v>
+      </c>
+      <c r="M458" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17430,7 +20182,13 @@
       <c r="J459" t="n">
         <v>1855.2</v>
       </c>
-      <c r="K459" t="inlineStr">
+      <c r="K459" t="n">
+        <v>0.371833084947839</v>
+      </c>
+      <c r="L459" t="n">
+        <v>2.183064359323351</v>
+      </c>
+      <c r="M459" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17467,7 +20225,13 @@
       <c r="J460" t="n">
         <v>1887.333333333333</v>
       </c>
-      <c r="K460" t="inlineStr">
+      <c r="K460" t="n">
+        <v>0.4269499712866939</v>
+      </c>
+      <c r="L460" t="n">
+        <v>2.230831685964417</v>
+      </c>
+      <c r="M460" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17504,7 +20268,13 @@
       <c r="J461" t="n">
         <v>2179.833333333333</v>
       </c>
-      <c r="K461" t="inlineStr">
+      <c r="K461" t="n">
+        <v>0.5528983089989993</v>
+      </c>
+      <c r="L461" t="n">
+        <v>2.569769106001335</v>
+      </c>
+      <c r="M461" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17541,7 +20311,13 @@
       <c r="J462" t="n">
         <v>2109.8</v>
       </c>
-      <c r="K462" t="inlineStr">
+      <c r="K462" t="n">
+        <v>0.4854124227462624</v>
+      </c>
+      <c r="L462" t="n">
+        <v>2.459501067142505</v>
+      </c>
+      <c r="M462" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17578,7 +20354,13 @@
       <c r="J463" t="n">
         <v>1831.428571428571</v>
       </c>
-      <c r="K463" t="inlineStr">
+      <c r="K463" t="n">
+        <v>0.2925581256171639</v>
+      </c>
+      <c r="L463" t="n">
+        <v>1.448787860826269</v>
+      </c>
+      <c r="M463" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17615,7 +20397,13 @@
       <c r="J464" t="n">
         <v>1370.666666666667</v>
       </c>
-      <c r="K464" t="inlineStr">
+      <c r="K464" t="n">
+        <v>0.0858070058222774</v>
+      </c>
+      <c r="L464" t="n">
+        <v>-0.6629793510324485</v>
+      </c>
+      <c r="M464" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17652,7 +20440,13 @@
       <c r="J465" t="n">
         <v>1570.125</v>
       </c>
-      <c r="K465" t="inlineStr">
+      <c r="K465" t="n">
+        <v>0.3544885893005055</v>
+      </c>
+      <c r="L465" t="n">
+        <v>3.573979151068364</v>
+      </c>
+      <c r="M465" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17689,7 +20483,13 @@
       <c r="J466" t="n">
         <v>1194.857142857143</v>
       </c>
-      <c r="K466" t="inlineStr">
+      <c r="K466" t="n">
+        <v>-0.02839088241931838</v>
+      </c>
+      <c r="L466" t="n">
+        <v>0.181309812060417</v>
+      </c>
+      <c r="M466" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17726,7 +20526,13 @@
       <c r="J467" t="n">
         <v>1478.666666666667</v>
       </c>
-      <c r="K467" t="inlineStr">
+      <c r="K467" t="n">
+        <v>0.5099854563513179</v>
+      </c>
+      <c r="L467" t="n">
+        <v>2.987242353723404</v>
+      </c>
+      <c r="M467" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17763,7 +20569,13 @@
       <c r="J468" t="n">
         <v>2819.285714285714</v>
       </c>
-      <c r="K468" t="inlineStr">
+      <c r="K468" t="n">
+        <v>0.1933245208195638</v>
+      </c>
+      <c r="L468" t="n">
+        <v>0.6609173759132337</v>
+      </c>
+      <c r="M468" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17800,7 +20612,13 @@
       <c r="J469" t="n">
         <v>1844.428571428571</v>
       </c>
-      <c r="K469" t="inlineStr">
+      <c r="K469" t="n">
+        <v>0.5031349083367106</v>
+      </c>
+      <c r="L469" t="n">
+        <v>4.021838554767894</v>
+      </c>
+      <c r="M469" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17837,7 +20655,13 @@
       <c r="J470" t="n">
         <v>1392.8</v>
       </c>
-      <c r="K470" t="inlineStr">
+      <c r="K470" t="n">
+        <v>0.195800227014756</v>
+      </c>
+      <c r="L470" t="n">
+        <v>4.612299465240642</v>
+      </c>
+      <c r="M470" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17874,7 +20698,13 @@
       <c r="J471" t="n">
         <v>1390.125</v>
       </c>
-      <c r="K471" t="inlineStr">
+      <c r="K471" t="n">
+        <v>0.2303773711374757</v>
+      </c>
+      <c r="L471" t="n">
+        <v>4.581444948013863</v>
+      </c>
+      <c r="M471" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17911,7 +20741,13 @@
       <c r="J472" t="n">
         <v>1402</v>
       </c>
-      <c r="K472" t="inlineStr">
+      <c r="K472" t="n">
+        <v>0.2914486973636505</v>
+      </c>
+      <c r="L472" t="n">
+        <v>3.142171096716552</v>
+      </c>
+      <c r="M472" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17948,7 +20784,13 @@
       <c r="J473" t="n">
         <v>2002.6</v>
       </c>
-      <c r="K473" t="inlineStr">
+      <c r="K473" t="n">
+        <v>0.4142555816452422</v>
+      </c>
+      <c r="L473" t="n">
+        <v>2.725725358751441</v>
+      </c>
+      <c r="M473" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17985,7 +20827,13 @@
       <c r="J474" t="n">
         <v>1821.2</v>
       </c>
-      <c r="K474" t="inlineStr">
+      <c r="K474" t="n">
+        <v>0.4287174648108831</v>
+      </c>
+      <c r="L474" t="n">
+        <v>2.656531696145789</v>
+      </c>
+      <c r="M474" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -18022,7 +20870,13 @@
       <c r="J475" t="n">
         <v>1717.428571428571</v>
       </c>
-      <c r="K475" t="inlineStr">
+      <c r="K475" t="n">
+        <v>0.5031750749858135</v>
+      </c>
+      <c r="L475" t="n">
+        <v>3.657918516481356</v>
+      </c>
+      <c r="M475" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -18059,7 +20913,13 @@
       <c r="J476" t="n">
         <v>1534.6</v>
       </c>
-      <c r="K476" t="inlineStr">
+      <c r="K476" t="n">
+        <v>0.2673160658975625</v>
+      </c>
+      <c r="L476" t="n">
+        <v>1.398281205973513</v>
+      </c>
+      <c r="M476" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -18096,7 +20956,13 @@
       <c r="J477" t="n">
         <v>1643.75</v>
       </c>
-      <c r="K477" t="inlineStr">
+      <c r="K477" t="n">
+        <v>0.604405357431015</v>
+      </c>
+      <c r="L477" t="n">
+        <v>3.326524268395577</v>
+      </c>
+      <c r="M477" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -18133,7 +20999,13 @@
       <c r="J478" t="n">
         <v>1711</v>
       </c>
-      <c r="K478" t="inlineStr">
+      <c r="K478" t="n">
+        <v>0.5314555443782404</v>
+      </c>
+      <c r="L478" t="n">
+        <v>3.063746263996074</v>
+      </c>
+      <c r="M478" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -18170,7 +21042,13 @@
       <c r="J479" t="n">
         <v>1821.714285714286</v>
       </c>
-      <c r="K479" t="inlineStr">
+      <c r="K479" t="n">
+        <v>0.5655821047280123</v>
+      </c>
+      <c r="L479" t="n">
+        <v>3.32894461234627</v>
+      </c>
+      <c r="M479" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -18207,7 +21085,13 @@
       <c r="J480" t="n">
         <v>1844</v>
       </c>
-      <c r="K480" t="inlineStr">
+      <c r="K480" t="n">
+        <v>0.5066536634473213</v>
+      </c>
+      <c r="L480" t="n">
+        <v>2.891797744738922</v>
+      </c>
+      <c r="M480" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -18244,7 +21128,13 @@
       <c r="J481" t="n">
         <v>2015.4</v>
       </c>
-      <c r="K481" t="inlineStr">
+      <c r="K481" t="n">
+        <v>0.4641824123812028</v>
+      </c>
+      <c r="L481" t="n">
+        <v>2.47714698099591</v>
+      </c>
+      <c r="M481" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -18281,7 +21171,13 @@
       <c r="J482" t="n">
         <v>1862</v>
       </c>
-      <c r="K482" t="inlineStr">
+      <c r="K482" t="n">
+        <v>0.5673726904010815</v>
+      </c>
+      <c r="L482" t="n">
+        <v>3.033085282938059</v>
+      </c>
+      <c r="M482" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -18318,7 +21214,13 @@
       <c r="J483" t="n">
         <v>2173.2</v>
       </c>
-      <c r="K483" t="inlineStr">
+      <c r="K483" t="n">
+        <v>0.4001017146178436</v>
+      </c>
+      <c r="L483" t="n">
+        <v>2.143552216729592</v>
+      </c>
+      <c r="M483" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -18355,7 +21257,13 @@
       <c r="J484" t="n">
         <v>2674.2</v>
       </c>
-      <c r="K484" t="inlineStr">
+      <c r="K484" t="n">
+        <v>0.2646939303262034</v>
+      </c>
+      <c r="L484" t="n">
+        <v>0.9072376418152348</v>
+      </c>
+      <c r="M484" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -18392,7 +21300,13 @@
       <c r="J485" t="n">
         <v>1993</v>
       </c>
-      <c r="K485" t="inlineStr">
+      <c r="K485" t="n">
+        <v>0.3961684646984298</v>
+      </c>
+      <c r="L485" t="n">
+        <v>1.940829070117364</v>
+      </c>
+      <c r="M485" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -18429,7 +21343,13 @@
       <c r="J486" t="n">
         <v>2122.833333333333</v>
       </c>
-      <c r="K486" t="inlineStr">
+      <c r="K486" t="n">
+        <v>0.5298403220947112</v>
+      </c>
+      <c r="L486" t="n">
+        <v>2.692489700478788</v>
+      </c>
+      <c r="M486" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -18466,7 +21386,13 @@
       <c r="J487" t="n">
         <v>2322</v>
       </c>
-      <c r="K487" t="inlineStr">
+      <c r="K487" t="n">
+        <v>0.4527716943030235</v>
+      </c>
+      <c r="L487" t="n">
+        <v>2.422983257229833</v>
+      </c>
+      <c r="M487" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -18503,7 +21429,13 @@
       <c r="J488" t="n">
         <v>2881.166666666667</v>
       </c>
-      <c r="K488" t="inlineStr">
+      <c r="K488" t="n">
+        <v>0.3858168245765146</v>
+      </c>
+      <c r="L488" t="n">
+        <v>1.492381502376616</v>
+      </c>
+      <c r="M488" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -18540,7 +21472,13 @@
       <c r="J489" t="n">
         <v>1670.142857142857</v>
       </c>
-      <c r="K489" t="inlineStr">
+      <c r="K489" t="n">
+        <v>0.6048425423347257</v>
+      </c>
+      <c r="L489" t="n">
+        <v>2.873081127322846</v>
+      </c>
+      <c r="M489" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -18577,7 +21515,13 @@
       <c r="J490" t="n">
         <v>1998.5</v>
       </c>
-      <c r="K490" t="inlineStr">
+      <c r="K490" t="n">
+        <v>0.5694046306504962</v>
+      </c>
+      <c r="L490" t="n">
+        <v>2.75388594129096</v>
+      </c>
+      <c r="M490" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -18614,7 +21558,13 @@
       <c r="J491" t="n">
         <v>2235</v>
       </c>
-      <c r="K491" t="inlineStr">
+      <c r="K491" t="n">
+        <v>0.445234166772433</v>
+      </c>
+      <c r="L491" t="n">
+        <v>2.008358619110322</v>
+      </c>
+      <c r="M491" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -18651,7 +21601,13 @@
       <c r="J492" t="n">
         <v>1820.4</v>
       </c>
-      <c r="K492" t="inlineStr">
+      <c r="K492" t="n">
+        <v>0.6002796947678837</v>
+      </c>
+      <c r="L492" t="n">
+        <v>2.618978140916809</v>
+      </c>
+      <c r="M492" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -18688,7 +21644,13 @@
       <c r="J493" t="n">
         <v>1857</v>
       </c>
-      <c r="K493" t="inlineStr">
+      <c r="K493" t="n">
+        <v>0.5717362752823745</v>
+      </c>
+      <c r="L493" t="n">
+        <v>2.750872048935848</v>
+      </c>
+      <c r="M493" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -18725,7 +21687,13 @@
       <c r="J494" t="n">
         <v>1571.714285714286</v>
       </c>
-      <c r="K494" t="inlineStr">
+      <c r="K494" t="n">
+        <v>0.2107454473045871</v>
+      </c>
+      <c r="L494" t="n">
+        <v>1.870381080907394</v>
+      </c>
+      <c r="M494" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -18762,7 +21730,13 @@
       <c r="J495" t="n">
         <v>1761.2</v>
       </c>
-      <c r="K495" t="inlineStr">
+      <c r="K495" t="n">
+        <v>0.08829275265640633</v>
+      </c>
+      <c r="L495" t="n">
+        <v>1.043473364117579</v>
+      </c>
+      <c r="M495" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -18799,7 +21773,13 @@
       <c r="J496" t="n">
         <v>1370.5</v>
       </c>
-      <c r="K496" t="inlineStr">
+      <c r="K496" t="n">
+        <v>0.1204428044280443</v>
+      </c>
+      <c r="L496" t="n">
+        <v>2.991202346041056</v>
+      </c>
+      <c r="M496" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -18836,7 +21816,13 @@
       <c r="J497" t="n">
         <v>1505.333333333333</v>
       </c>
-      <c r="K497" t="inlineStr">
+      <c r="K497" t="n">
+        <v>0.03596988567710754</v>
+      </c>
+      <c r="L497" t="n">
+        <v>0.4117897424984042</v>
+      </c>
+      <c r="M497" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -18873,7 +21859,13 @@
       <c r="J498" t="n">
         <v>1651.8</v>
       </c>
-      <c r="K498" t="inlineStr">
+      <c r="K498" t="n">
+        <v>0.1156517712433434</v>
+      </c>
+      <c r="L498" t="n">
+        <v>-10.88235294117634</v>
+      </c>
+      <c r="M498" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -18910,7 +21902,13 @@
       <c r="J499" t="n">
         <v>1471.571428571429</v>
       </c>
-      <c r="K499" t="inlineStr">
+      <c r="K499" t="n">
+        <v>0.0995271594971745</v>
+      </c>
+      <c r="L499" t="n">
+        <v>1.393433799784717</v>
+      </c>
+      <c r="M499" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -18947,7 +21945,13 @@
       <c r="J500" t="n">
         <v>1721.333333333333</v>
       </c>
-      <c r="K500" t="inlineStr">
+      <c r="K500" t="n">
+        <v>0.2283914808983178</v>
+      </c>
+      <c r="L500" t="n">
+        <v>2.346530438484462</v>
+      </c>
+      <c r="M500" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -18984,7 +21988,13 @@
       <c r="J501" t="n">
         <v>1872</v>
       </c>
-      <c r="K501" t="inlineStr">
+      <c r="K501" t="n">
+        <v>0.3065724143734747</v>
+      </c>
+      <c r="L501" t="n">
+        <v>1.811356404136833</v>
+      </c>
+      <c r="M501" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19021,7 +22031,13 @@
       <c r="J502" t="n">
         <v>2526</v>
       </c>
-      <c r="K502" t="inlineStr">
+      <c r="K502" t="n">
+        <v>0.05680943072092885</v>
+      </c>
+      <c r="L502" t="n">
+        <v>0.5448863636363637</v>
+      </c>
+      <c r="M502" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19058,7 +22074,13 @@
       <c r="J503" t="n">
         <v>1328.8</v>
       </c>
-      <c r="K503" t="inlineStr">
+      <c r="K503" t="n">
+        <v>0.1415181599556021</v>
+      </c>
+      <c r="L503" t="n">
+        <v>3.127555192150437</v>
+      </c>
+      <c r="M503" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19095,7 +22117,13 @@
       <c r="J504" t="n">
         <v>1330.4</v>
       </c>
-      <c r="K504" t="inlineStr">
+      <c r="K504" t="n">
+        <v>0.03652173913043479</v>
+      </c>
+      <c r="L504" t="n">
+        <v>-1.842105263157895</v>
+      </c>
+      <c r="M504" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19132,7 +22160,13 @@
       <c r="J505" t="n">
         <v>1697.75</v>
       </c>
-      <c r="K505" t="inlineStr">
+      <c r="K505" t="n">
+        <v>0.1628628693347126</v>
+      </c>
+      <c r="L505" t="n">
+        <v>1.742770167427702</v>
+      </c>
+      <c r="M505" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19169,7 +22203,13 @@
       <c r="J506" t="n">
         <v>1557.666666666667</v>
       </c>
-      <c r="K506" t="inlineStr">
+      <c r="K506" t="n">
+        <v>0.2088409328228333</v>
+      </c>
+      <c r="L506" t="n">
+        <v>2.283539486203614</v>
+      </c>
+      <c r="M506" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19206,7 +22246,13 @@
       <c r="J507" t="n">
         <v>1780.8</v>
       </c>
-      <c r="K507" t="inlineStr">
+      <c r="K507" t="n">
+        <v>0.3433811512620301</v>
+      </c>
+      <c r="L507" t="n">
+        <v>2.327957651114117</v>
+      </c>
+      <c r="M507" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19243,7 +22289,13 @@
       <c r="J508" t="n">
         <v>1506.857142857143</v>
       </c>
-      <c r="K508" t="inlineStr">
+      <c r="K508" t="n">
+        <v>0.1367344453914526</v>
+      </c>
+      <c r="L508" t="n">
+        <v>2.414361473412642</v>
+      </c>
+      <c r="M508" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19280,7 +22332,13 @@
       <c r="J509" t="n">
         <v>1471</v>
       </c>
-      <c r="K509" t="inlineStr">
+      <c r="K509" t="n">
+        <v>0.22284065141208</v>
+      </c>
+      <c r="L509" t="n">
+        <v>2.630597014925373</v>
+      </c>
+      <c r="M509" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19317,7 +22375,13 @@
       <c r="J510" t="n">
         <v>1553.5</v>
       </c>
-      <c r="K510" t="inlineStr">
+      <c r="K510" t="n">
+        <v>0.2448823903369358</v>
+      </c>
+      <c r="L510" t="n">
+        <v>2.135728542914172</v>
+      </c>
+      <c r="M510" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19354,7 +22418,13 @@
       <c r="J511" t="n">
         <v>1629</v>
       </c>
-      <c r="K511" t="inlineStr">
+      <c r="K511" t="n">
+        <v>0.2709056641206229</v>
+      </c>
+      <c r="L511" t="n">
+        <v>2.025363393651736</v>
+      </c>
+      <c r="M511" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19391,7 +22461,13 @@
       <c r="J512" t="n">
         <v>1423.833333333333</v>
       </c>
-      <c r="K512" t="inlineStr">
+      <c r="K512" t="n">
+        <v>0.04478935698447896</v>
+      </c>
+      <c r="L512" t="n">
+        <v>3.239775461106677</v>
+      </c>
+      <c r="M512" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19428,7 +22504,13 @@
       <c r="J513" t="n">
         <v>1673</v>
       </c>
-      <c r="K513" t="inlineStr">
+      <c r="K513" t="n">
+        <v>0.1851033075418757</v>
+      </c>
+      <c r="L513" t="n">
+        <v>2.19765798505956</v>
+      </c>
+      <c r="M513" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19465,7 +22547,13 @@
       <c r="J514" t="n">
         <v>1377.666666666667</v>
       </c>
-      <c r="K514" t="inlineStr">
+      <c r="K514" t="n">
+        <v>0.1162549304546398</v>
+      </c>
+      <c r="L514" t="n">
+        <v>2.895553257497409</v>
+      </c>
+      <c r="M514" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19502,7 +22590,13 @@
       <c r="J515" t="n">
         <v>1403</v>
       </c>
-      <c r="K515" t="inlineStr">
+      <c r="K515" t="n">
+        <v>0.06752801049762794</v>
+      </c>
+      <c r="L515" t="n">
+        <v>6.723618090452311</v>
+      </c>
+      <c r="M515" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19539,7 +22633,13 @@
       <c r="J516" t="n">
         <v>1313.833333333333</v>
       </c>
-      <c r="K516" t="inlineStr">
+      <c r="K516" t="n">
+        <v>0.01704673741250844</v>
+      </c>
+      <c r="L516" t="n">
+        <v>1.405959031657354</v>
+      </c>
+      <c r="M516" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19576,7 +22676,13 @@
       <c r="J517" t="n">
         <v>1592.142857142857</v>
       </c>
-      <c r="K517" t="inlineStr">
+      <c r="K517" t="n">
+        <v>0.04427602712405267</v>
+      </c>
+      <c r="L517" t="n">
+        <v>1.097802197802192</v>
+      </c>
+      <c r="M517" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19613,7 +22719,13 @@
       <c r="J518" t="n">
         <v>1384.333333333333</v>
       </c>
-      <c r="K518" t="inlineStr">
+      <c r="K518" t="n">
+        <v>0.07501564010692151</v>
+      </c>
+      <c r="L518" t="n">
+        <v>-6.516798418972289</v>
+      </c>
+      <c r="M518" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19650,7 +22762,13 @@
       <c r="J519" t="n">
         <v>1381.5</v>
       </c>
-      <c r="K519" t="inlineStr">
+      <c r="K519" t="n">
+        <v>0.2192163281024357</v>
+      </c>
+      <c r="L519" t="n">
+        <v>5.968545216251648</v>
+      </c>
+      <c r="M519" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19687,7 +22805,13 @@
       <c r="J520" t="n">
         <v>1298.857142857143</v>
       </c>
-      <c r="K520" t="inlineStr">
+      <c r="K520" t="n">
+        <v>0.02816246863091361</v>
+      </c>
+      <c r="L520" t="n">
+        <v>17.31428571428569</v>
+      </c>
+      <c r="M520" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19724,7 +22848,13 @@
       <c r="J521" t="n">
         <v>1247.8</v>
       </c>
-      <c r="K521" t="inlineStr">
+      <c r="K521" t="n">
+        <v>-0.00446080861006865</v>
+      </c>
+      <c r="L521" t="n">
+        <v>-0.4625550660793017</v>
+      </c>
+      <c r="M521" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19761,7 +22891,13 @@
       <c r="J522" t="n">
         <v>1458.25</v>
       </c>
-      <c r="K522" t="inlineStr">
+      <c r="K522" t="n">
+        <v>0.1916897506925208</v>
+      </c>
+      <c r="L522" t="n">
+        <v>2.113622480146609</v>
+      </c>
+      <c r="M522" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19798,7 +22934,13 @@
       <c r="J523" t="n">
         <v>1636.666666666667</v>
       </c>
-      <c r="K523" t="inlineStr">
+      <c r="K523" t="n">
+        <v>0.389991494187695</v>
+      </c>
+      <c r="L523" t="n">
+        <v>3.188825779529384</v>
+      </c>
+      <c r="M523" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19835,7 +22977,13 @@
       <c r="J524" t="n">
         <v>1171.666666666667</v>
       </c>
-      <c r="K524" t="inlineStr">
+      <c r="K524" t="n">
+        <v>0.04380976996639958</v>
+      </c>
+      <c r="L524" t="n">
+        <v>-0.388271675638529</v>
+      </c>
+      <c r="M524" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19872,7 +23020,13 @@
       <c r="J525" t="n">
         <v>1364.333333333333</v>
       </c>
-      <c r="K525" t="inlineStr">
+      <c r="K525" t="n">
+        <v>0.1250827941101544</v>
+      </c>
+      <c r="L525" t="n">
+        <v>2.387667768916557</v>
+      </c>
+      <c r="M525" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19909,7 +23063,13 @@
       <c r="J526" t="n">
         <v>1354.333333333333</v>
       </c>
-      <c r="K526" t="inlineStr">
+      <c r="K526" t="n">
+        <v>0.1086181047407331</v>
+      </c>
+      <c r="L526" t="n">
+        <v>1.749958354156256</v>
+      </c>
+      <c r="M526" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19946,7 +23106,13 @@
       <c r="J527" t="n">
         <v>1433.833333333333</v>
       </c>
-      <c r="K527" t="inlineStr">
+      <c r="K527" t="n">
+        <v>0.06761821635775531</v>
+      </c>
+      <c r="L527" t="n">
+        <v>1.959238321927993</v>
+      </c>
+      <c r="M527" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19983,7 +23149,13 @@
       <c r="J528" t="n">
         <v>1571.5</v>
       </c>
-      <c r="K528" t="inlineStr">
+      <c r="K528" t="n">
+        <v>0.3168629016164439</v>
+      </c>
+      <c r="L528" t="n">
+        <v>2.757171632979093</v>
+      </c>
+      <c r="M528" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20020,7 +23192,13 @@
       <c r="J529" t="n">
         <v>1582.8</v>
       </c>
-      <c r="K529" t="inlineStr">
+      <c r="K529" t="n">
+        <v>0.03432413305024766</v>
+      </c>
+      <c r="L529" t="n">
+        <v>20.4929577464778</v>
+      </c>
+      <c r="M529" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20057,7 +23235,13 @@
       <c r="J530" t="n">
         <v>1341.571428571429</v>
       </c>
-      <c r="K530" t="inlineStr">
+      <c r="K530" t="n">
+        <v>-0.00573575949367092</v>
+      </c>
+      <c r="L530" t="n">
+        <v>0.05292936667275078</v>
+      </c>
+      <c r="M530" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20094,7 +23278,13 @@
       <c r="J531" t="n">
         <v>1185</v>
       </c>
-      <c r="K531" t="inlineStr">
+      <c r="K531" t="n">
+        <v>-0.01668360940022723</v>
+      </c>
+      <c r="L531" t="n">
+        <v>0.1423905277125652</v>
+      </c>
+      <c r="M531" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20131,7 +23321,13 @@
       <c r="J532" t="n">
         <v>1539.166666666667</v>
       </c>
-      <c r="K532" t="inlineStr">
+      <c r="K532" t="n">
+        <v>0.1172983180360985</v>
+      </c>
+      <c r="L532" t="n">
+        <v>2.243029895868326</v>
+      </c>
+      <c r="M532" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20168,7 +23364,13 @@
       <c r="J533" t="n">
         <v>1357.5</v>
       </c>
-      <c r="K533" t="inlineStr">
+      <c r="K533" t="n">
+        <v>0.02023274904630841</v>
+      </c>
+      <c r="L533" t="n">
+        <v>-10.21951219512161</v>
+      </c>
+      <c r="M533" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20205,7 +23407,13 @@
       <c r="J534" t="n">
         <v>1296.166666666667</v>
       </c>
-      <c r="K534" t="inlineStr">
+      <c r="K534" t="n">
+        <v>0.02035545169423777</v>
+      </c>
+      <c r="L534" t="n">
+        <v>-0.1805585860789877</v>
+      </c>
+      <c r="M534" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20242,7 +23450,13 @@
       <c r="J535" t="n">
         <v>1290.428571428571</v>
       </c>
-      <c r="K535" t="inlineStr">
+      <c r="K535" t="n">
+        <v>0.004472507234938246</v>
+      </c>
+      <c r="L535" t="n">
+        <v>-0.03612102668706504</v>
+      </c>
+      <c r="M535" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20279,7 +23493,13 @@
       <c r="J536" t="n">
         <v>1401.8</v>
       </c>
-      <c r="K536" t="inlineStr">
+      <c r="K536" t="n">
+        <v>0.03985549469758769</v>
+      </c>
+      <c r="L536" t="n">
+        <v>87.69230769231584</v>
+      </c>
+      <c r="M536" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20316,7 +23536,13 @@
       <c r="J537" t="n">
         <v>1651.2</v>
       </c>
-      <c r="K537" t="inlineStr">
+      <c r="K537" t="n">
+        <v>0.1149464963755609</v>
+      </c>
+      <c r="L537" t="n">
+        <v>1.673847479534685</v>
+      </c>
+      <c r="M537" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20353,7 +23579,13 @@
       <c r="J538" t="n">
         <v>1552.714285714286</v>
       </c>
-      <c r="K538" t="inlineStr">
+      <c r="K538" t="n">
+        <v>0.1014861014861015</v>
+      </c>
+      <c r="L538" t="n">
+        <v>0.795557433452042</v>
+      </c>
+      <c r="M538" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20390,7 +23622,13 @@
       <c r="J539" t="n">
         <v>1573</v>
       </c>
-      <c r="K539" t="inlineStr">
+      <c r="K539" t="n">
+        <v>0.01915794163510803</v>
+      </c>
+      <c r="L539" t="n">
+        <v>0.2291194884774207</v>
+      </c>
+      <c r="M539" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20427,7 +23665,13 @@
       <c r="J540" t="n">
         <v>1409</v>
       </c>
-      <c r="K540" t="inlineStr">
+      <c r="K540" t="n">
+        <v>0.08229113128890414</v>
+      </c>
+      <c r="L540" t="n">
+        <v>0.8892865959022457</v>
+      </c>
+      <c r="M540" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20464,7 +23708,13 @@
       <c r="J541" t="n">
         <v>1609.5</v>
       </c>
-      <c r="K541" t="inlineStr">
+      <c r="K541" t="n">
+        <v>0.192181567138419</v>
+      </c>
+      <c r="L541" t="n">
+        <v>1.8315650958138</v>
+      </c>
+      <c r="M541" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20501,7 +23751,13 @@
       <c r="J542" t="n">
         <v>1397.5</v>
       </c>
-      <c r="K542" t="inlineStr">
+      <c r="K542" t="n">
+        <v>0.1391977480647431</v>
+      </c>
+      <c r="L542" t="n">
+        <v>1.582906530089629</v>
+      </c>
+      <c r="M542" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20538,7 +23794,13 @@
       <c r="J543" t="n">
         <v>1448</v>
       </c>
-      <c r="K543" t="inlineStr">
+      <c r="K543" t="n">
+        <v>0.09306806470403724</v>
+      </c>
+      <c r="L543" t="n">
+        <v>1.409856095574258</v>
+      </c>
+      <c r="M543" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20575,7 +23837,13 @@
       <c r="J544" t="n">
         <v>1432.166666666667</v>
       </c>
-      <c r="K544" t="inlineStr">
+      <c r="K544" t="n">
+        <v>0.103448275862069</v>
+      </c>
+      <c r="L544" t="n">
+        <v>1.224489795918367</v>
+      </c>
+      <c r="M544" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20612,7 +23880,13 @@
       <c r="J545" t="n">
         <v>1603</v>
       </c>
-      <c r="K545" t="inlineStr">
+      <c r="K545" t="n">
+        <v>0.085474044251256</v>
+      </c>
+      <c r="L545" t="n">
+        <v>1.319146596282856</v>
+      </c>
+      <c r="M545" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20649,7 +23923,13 @@
       <c r="J546" t="n">
         <v>1478</v>
       </c>
-      <c r="K546" t="inlineStr">
+      <c r="K546" t="n">
+        <v>0.1002767587050267</v>
+      </c>
+      <c r="L546" t="n">
+        <v>1.631584459105665</v>
+      </c>
+      <c r="M546" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20686,7 +23966,13 @@
       <c r="J547" t="n">
         <v>1321</v>
       </c>
-      <c r="K547" t="inlineStr">
+      <c r="K547" t="n">
+        <v>0.05108341753676883</v>
+      </c>
+      <c r="L547" t="n">
+        <v>1.151024538325319</v>
+      </c>
+      <c r="M547" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20723,7 +24009,13 @@
       <c r="J548" t="n">
         <v>1389.166666666667</v>
       </c>
-      <c r="K548" t="inlineStr">
+      <c r="K548" t="n">
+        <v>0.02748259435690729</v>
+      </c>
+      <c r="L548" t="n">
+        <v>0.691881918819187</v>
+      </c>
+      <c r="M548" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20760,7 +24052,13 @@
       <c r="J549" t="n">
         <v>1641.8</v>
       </c>
-      <c r="K549" t="inlineStr">
+      <c r="K549" t="n">
+        <v>0.171275435184746</v>
+      </c>
+      <c r="L549" t="n">
+        <v>1.53974074705782</v>
+      </c>
+      <c r="M549" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20797,7 +24095,13 @@
       <c r="J550" t="n">
         <v>1530.6</v>
       </c>
-      <c r="K550" t="inlineStr">
+      <c r="K550" t="n">
+        <v>0.06471635990716251</v>
+      </c>
+      <c r="L550" t="n">
+        <v>0.9968407050216166</v>
+      </c>
+      <c r="M550" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20834,7 +24138,13 @@
       <c r="J551" t="n">
         <v>1546.166666666667</v>
       </c>
-      <c r="K551" t="inlineStr">
+      <c r="K551" t="n">
+        <v>0.1697440585009141</v>
+      </c>
+      <c r="L551" t="n">
+        <v>7.620024620434941</v>
+      </c>
+      <c r="M551" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20871,7 +24181,13 @@
       <c r="J552" t="n">
         <v>1394.166666666667</v>
       </c>
-      <c r="K552" t="inlineStr">
+      <c r="K552" t="n">
+        <v>0.038783425188814</v>
+      </c>
+      <c r="L552" t="n">
+        <v>-4.465334900117542</v>
+      </c>
+      <c r="M552" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20908,7 +24224,13 @@
       <c r="J553" t="n">
         <v>1654.5</v>
       </c>
-      <c r="K553" t="inlineStr">
+      <c r="K553" t="n">
+        <v>0.1584190325510533</v>
+      </c>
+      <c r="L553" t="n">
+        <v>1.450531172872626</v>
+      </c>
+      <c r="M553" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20945,7 +24267,13 @@
       <c r="J554" t="n">
         <v>1552.666666666667</v>
       </c>
-      <c r="K554" t="inlineStr">
+      <c r="K554" t="n">
+        <v>0.1649984964989905</v>
+      </c>
+      <c r="L554" t="n">
+        <v>1.456579446340539</v>
+      </c>
+      <c r="M554" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20982,7 +24310,13 @@
       <c r="J555" t="n">
         <v>1529.166666666667</v>
       </c>
-      <c r="K555" t="inlineStr">
+      <c r="K555" t="n">
+        <v>0.1231302364346186</v>
+      </c>
+      <c r="L555" t="n">
+        <v>1.134508123838009</v>
+      </c>
+      <c r="M555" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -21019,7 +24353,13 @@
       <c r="J556" t="n">
         <v>1708.2</v>
       </c>
-      <c r="K556" t="inlineStr">
+      <c r="K556" t="n">
+        <v>0.1470095575918809</v>
+      </c>
+      <c r="L556" t="n">
+        <v>1.466194968553455</v>
+      </c>
+      <c r="M556" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -21056,7 +24396,13 @@
       <c r="J557" t="n">
         <v>1916</v>
       </c>
-      <c r="K557" t="inlineStr">
+      <c r="K557" t="n">
+        <v>0.6225839267548322</v>
+      </c>
+      <c r="L557" t="n">
+        <v>2.848927955310933</v>
+      </c>
+      <c r="M557" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -21093,7 +24439,13 @@
       <c r="J558" t="n">
         <v>1593.666666666667</v>
       </c>
-      <c r="K558" t="inlineStr">
+      <c r="K558" t="n">
+        <v>0.2147492625368731</v>
+      </c>
+      <c r="L558" t="n">
+        <v>1.421319796954315</v>
+      </c>
+      <c r="M558" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -21130,7 +24482,13 @@
       <c r="J559" t="n">
         <v>1989</v>
       </c>
-      <c r="K559" t="inlineStr">
+      <c r="K559" t="n">
+        <v>0.3528767979987493</v>
+      </c>
+      <c r="L559" t="n">
+        <v>1.725997017550568</v>
+      </c>
+      <c r="M559" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -21167,7 +24525,13 @@
       <c r="J560" t="n">
         <v>1419.833333333333</v>
       </c>
-      <c r="K560" t="inlineStr">
+      <c r="K560" t="n">
+        <v>0.0644318461917673</v>
+      </c>
+      <c r="L560" t="n">
+        <v>0.5618122420907835</v>
+      </c>
+      <c r="M560" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -21204,7 +24568,13 @@
       <c r="J561" t="n">
         <v>2098.8</v>
       </c>
-      <c r="K561" t="inlineStr">
+      <c r="K561" t="n">
+        <v>0.4741376315698058</v>
+      </c>
+      <c r="L561" t="n">
+        <v>1.934436917146178</v>
+      </c>
+      <c r="M561" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -21241,7 +24611,13 @@
       <c r="J562" t="n">
         <v>1816.666666666667</v>
       </c>
-      <c r="K562" t="inlineStr">
+      <c r="K562" t="n">
+        <v>0.1708088916332201</v>
+      </c>
+      <c r="L562" t="n">
+        <v>1.06083121614496</v>
+      </c>
+      <c r="M562" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -21278,7 +24654,13 @@
       <c r="J563" t="n">
         <v>2174.4</v>
       </c>
-      <c r="K563" t="inlineStr">
+      <c r="K563" t="n">
+        <v>0.4880424559989252</v>
+      </c>
+      <c r="L563" t="n">
+        <v>1.909129132285698</v>
+      </c>
+      <c r="M563" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -21315,7 +24697,13 @@
       <c r="J564" t="n">
         <v>1238.5</v>
       </c>
-      <c r="K564" t="inlineStr">
+      <c r="K564" t="n">
+        <v>-0.03195364238410596</v>
+      </c>
+      <c r="L564" t="n">
+        <v>-0.4703875213258591</v>
+      </c>
+      <c r="M564" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -21352,7 +24740,13 @@
       <c r="J565" t="n">
         <v>1367</v>
       </c>
-      <c r="K565" t="inlineStr">
+      <c r="K565" t="n">
+        <v>-0.02450118887625349</v>
+      </c>
+      <c r="L565" t="n">
+        <v>-0.2528269682099426</v>
+      </c>
+      <c r="M565" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -21389,7 +24783,13 @@
       <c r="J566" t="n">
         <v>1310.833333333333</v>
       </c>
-      <c r="K566" t="inlineStr">
+      <c r="K566" t="n">
+        <v>-0.02108559498956156</v>
+      </c>
+      <c r="L566" t="n">
+        <v>-0.2783519360617332</v>
+      </c>
+      <c r="M566" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -21426,7 +24826,13 @@
       <c r="J567" t="n">
         <v>1960.5</v>
       </c>
-      <c r="K567" t="inlineStr">
+      <c r="K567" t="n">
+        <v>0.5438330022977762</v>
+      </c>
+      <c r="L567" t="n">
+        <v>2.208131058365882</v>
+      </c>
+      <c r="M567" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -21463,7 +24869,13 @@
       <c r="J568" t="n">
         <v>1873.25</v>
       </c>
-      <c r="K568" t="inlineStr">
+      <c r="K568" t="n">
+        <v>0.6195946196316745</v>
+      </c>
+      <c r="L568" t="n">
+        <v>2.88223532250836</v>
+      </c>
+      <c r="M568" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -21500,7 +24912,13 @@
       <c r="J569" t="n">
         <v>1426.833333333333</v>
       </c>
-      <c r="K569" t="inlineStr">
+      <c r="K569" t="n">
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="L569" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M569" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -21537,7 +24955,13 @@
       <c r="J570" t="n">
         <v>1549.166666666667</v>
       </c>
-      <c r="K570" t="inlineStr">
+      <c r="K570" t="n">
+        <v>0.2171555555555555</v>
+      </c>
+      <c r="L570" t="n">
+        <v>2.452318811483639</v>
+      </c>
+      <c r="M570" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -21574,7 +24998,13 @@
       <c r="J571" t="n">
         <v>1344.75</v>
       </c>
-      <c r="K571" t="inlineStr">
+      <c r="K571" t="n">
+        <v>0.01667094126699153</v>
+      </c>
+      <c r="L571" t="n">
+        <v>-0.6380890052356021</v>
+      </c>
+      <c r="M571" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -21611,7 +25041,13 @@
       <c r="J572" t="n">
         <v>1369.5</v>
       </c>
-      <c r="K572" t="inlineStr">
+      <c r="K572" t="n">
+        <v>0.1355417031580032</v>
+      </c>
+      <c r="L572" t="n">
+        <v>31.02594339622588</v>
+      </c>
+      <c r="M572" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -21648,7 +25084,13 @@
       <c r="J573" t="n">
         <v>1739.5</v>
       </c>
-      <c r="K573" t="inlineStr">
+      <c r="K573" t="n">
+        <v>0.09978667930789285</v>
+      </c>
+      <c r="L573" t="n">
+        <v>1.951965875370917</v>
+      </c>
+      <c r="M573" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -21685,7 +25127,13 @@
       <c r="J574" t="n">
         <v>1461.5</v>
       </c>
-      <c r="K574" t="inlineStr">
+      <c r="K574" t="n">
+        <v>0.1536729119746993</v>
+      </c>
+      <c r="L574" t="n">
+        <v>2.420377358490563</v>
+      </c>
+      <c r="M574" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -21722,7 +25170,13 @@
       <c r="J575" t="n">
         <v>1790</v>
       </c>
-      <c r="K575" t="inlineStr">
+      <c r="K575" t="n">
+        <v>0.180085024323969</v>
+      </c>
+      <c r="L575" t="n">
+        <v>4.579803834150685</v>
+      </c>
+      <c r="M575" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -21759,7 +25213,13 @@
       <c r="J576" t="n">
         <v>1946.333333333333</v>
       </c>
-      <c r="K576" t="inlineStr">
+      <c r="K576" t="n">
+        <v>0.1554160125588697</v>
+      </c>
+      <c r="L576" t="n">
+        <v>2.741116751269035</v>
+      </c>
+      <c r="M576" t="inlineStr">
         <is>
           <t>air</t>
         </is>
